--- a/sharedata/exceldata/excel/all/U-UI内容表.xlsx
+++ b/sharedata/exceldata/excel/all/U-UI内容表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="ui内容表" sheetId="2" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="460">
   <si>
     <t>1小的帮助框
 2大的带标题的
@@ -63,15 +68,6 @@
     <t>这排程序自己填</t>
   </si>
   <si>
-    <t>[1]={title = "游园", [1] = "剧场: 14:00", [2] = "剧场: 14:00" },
-[2]={title = "游园时间", [1] = "剧场: 14:00", [2] = "剧场: 14:00", [1] = "剧场: 14:00"},
-[3]={title = "游园时间", [1] = "剧场: 14:00", [2] = "剧场: 14:00", [1] = "剧场: 14:00"},
-[4]={title = "游园时间", [1] = "剧场: 14:00", [2] = "剧场: 14:00", [1] = "剧场: 14:00"},
-[5]={title = "游园时间", [1] = "剧场: 14:00", [2] = "剧场: 14:00", [1] = "剧场: 14:00"},
-[6]={title = "游园时间", [1] = "剧场: 14:00", [2] = "剧场: 14:00", [1] = "剧场: 14:00"},
-[7]={title = "游园时间", [1] = "剧场: 14:00", [2] = "剧场: 14:00", [1] = "剧场: 14:00"},</t>
-  </si>
-  <si>
     <t>不显示不用填，0~3个 多了提醒程序调整UI大小</t>
   </si>
   <si>
@@ -577,9 +573,6 @@
   </si>
   <si>
     <t>ChildCenterUI</t>
-  </si>
-  <si>
-    <t>子嗣</t>
   </si>
   <si>
     <t>儿女的天资由出生时母亲的亲密度决定，亲密度越高，获得的高天资儿女的几率越高//儿女的天资决定了儿女的等级上限，天资越高，等级上限越高//每次教导会增加儿女的经验值，经验值满儿女会升级//每次教导需要消耗儿女1点心情值，心情值每2小时恢复1点//教导值由母亲当前亲密度决定，亲密度越高，教导值越高//心情值上限跟VIP等级有关，详情请见VIP界面//儿女等级达到上限之后可以进行成人礼，成人礼完毕后的儿女离开育儿所，儿女的属性直接加成在帮力上</t>
@@ -617,13 +610,6 @@
     <t>分解</t>
   </si>
   <si>
-    <t>[1]={title = "头目碎片分解", [1] = "分解头目碎片返还头目货币以及金钱", [2] = "分解头目碎片返还头目货币以及金钱"},
-[2]={title = "装备分解", [1] = "所有装备都可以分解，根据装备品质返还地下货币，红色装备除返还地下货币外，同时返还部分红色装备精华", [2] = "返还装备升级过程中消耗的所有金钱", [3] = "返还装备精炼过程中消耗的所有装备精炼石"},
-[3]={title = "头目重生", [1] = "头目突破过程中消耗的金钱不返还", [2] = "返还头目升级过程中消耗的所有金钱", [3] = "返还头目升星过程中消耗的所有同名头目碎片", [4] = "返还天命升级过程中消耗的所有基因药剂", [5] = "返还培养过程中消耗的所有道具"},
-[4]={title = "装备重生",  [1] = "返还装备强化过程中消耗的所有金钱", [2] = "返还装备精炼过程中消耗的所有精炼石", [3] = "返还装备升星过程中消耗的所有金钱和同名装备碎片"},
-[5]={title = "宝物重生", [1] = "重生后，初始宝物得到保留，同时返还宝物精炼过程中消耗的同名宝物", [2] = "返还宝物强化过程中消耗的所有金钱", [3] = "返还精炼过程中消耗的所有宝物精炼石和金钱"}</t>
-  </si>
-  <si>
     <t>装备多选界面</t>
   </si>
   <si>
@@ -998,12 +984,6 @@
   </si>
   <si>
     <t>沙龙帮助</t>
-  </si>
-  <si>
-    <t>[1]={title = "游园时间", [1] = "花艺室：14：00", [2] = "画展：16：00" ,[3] = "剧场：18：00",[4] = "舞会：19：00",[5] = "音乐会：20：00"},
-[2]={title = "游园条件", [1] = "游园开始前可派遣情人参加", [2] = "称谓达到甜心或者以上的情人可参加游园"},
-[3]={title = "比拼规则", [1] = "游园开始后将报名的情人随机分配各组，每组9人", [2] = "比拼分为四回合，根据礼仪值、才艺值和魅力值获得分数，交际值最高的情人可以掠夺其他情人的分数"},
-[4]={title = "称谓加成", [1] = "每日初始位阶点由已有情人的称谓决定（第一夫人+9点、女主人+8点、妻子+7点、爱人+6点、灵魂伴侣+5点、伴侣+4点、知音+3点、情妇+2点、甜心+1点）", [2] = "位阶点可用于派遣情人游园时，临时增加情人对应的属性值", [3] = "每点位阶点可增加5%的临时属性", [4] = "每项属性最多分配10点位阶点", [5] = "每日可消耗钻石额外购买位阶点", [6] = "按照前四回合累计得分排名", [7] = "得分相同时，按情人四项属性总和排名", [8] = "若四项属性总和相同，按情人亲密经验排名"}</t>
   </si>
   <si>
     <t>金钱//沙龙积分</t>
@@ -1471,18 +1451,35 @@
   <si>
     <t>RankMainUI</t>
   </si>
+  <si>
+    <t>育儿所</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吧</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]={title = "游园时间", [1] = "画展：14：00" ,[2] = "花艺室：16：00",[3] = "音乐会：18：00", [4] = "剧场：19：00",[5] = "舞会：20：00"},
+[2]={title = "游园条件", [1] = "游园开始前可派遣情人参加", [2] = "称谓达到甜心或者以上的情人可参加游园"},
+[3]={title = "比拼规则", [1] = "游园开始后将报名的情人随机分配各组，每组9人", [2] = "比拼分为四回合，根据礼仪值、才艺值和魅力值获得分数，交际值最高的情人可以掠夺其他情人的分数"},
+[4]={title = "称谓加成", [1] = "每日初始位阶点由已有情人的称谓决定（第一夫人+9点、女主人+8点、妻子+7点、爱人+6点、灵魂伴侣+5点、伴侣+4点、知音+3点、情妇+2点、甜心+1点）", [2] = "位阶点可用于派遣情人游园时，临时增加情人对应的属性值", [3] = "每点位阶点可增加5%的临时属性", [4] = "每项属性最多分配10点位阶点", [5] = "每日可消耗钻石额外购买位阶点", [6] = "按照前四回合累计得分排名", [7] = "得分相同时，按情人四项属性总和排名", [8] = "若四项属性总和相同，按情人亲密经验排名"}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]={title = "头目碎片分解", [1] = "分解头目碎片返还头目货币以及金钱", [2] = "分解头目碎片返还头目货币以及金钱"},
+[2]={title = "装备分解", [1] = "所有装备都可以分解，根据装备品质返还地下货币，红色装备除返还地下货币外，同时返还部分红色装备精华", [2] = "返还装备升级过程中消耗的所有金钱", [3] = "返还装备精炼过程中消耗的所有装备精炼石"},
+[3]={title = "头目重生", [1] = "头目突破过程中消耗的金钱不返还", [2] = "返还头目升级过程中消耗的所有金钱", [3] = "返还头目升星过程中消耗的所有同名头目碎片", [4] = "返还天命升级过程中消耗的所有基因药剂", [5] = "返还培养过程中消耗的所有道具"},
+[4]={title = "装备重生",  [1] = "返还装备强化过程中消耗的所有金钱", [2] = "返还装备精炼过程中消耗的所有精炼石", [3] = "返还装备升星过程中消耗的所有金钱和同名装备碎片"},
+[5]={title = "宝物重生", [1] = "重生后，初始宝物得到保留，同时返还宝物精炼过程中消耗的同名宝物", [2] = "返还宝物强化过程中消耗的所有金钱", [3] = "返还精炼过程中消耗的所有宝物精炼石和金钱"}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,44 +1517,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1566,58 +1526,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1626,51 +1538,6 @@
       <color theme="0"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1683,14 +1550,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1723,13 +1616,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1741,7 +1634,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1753,13 +1646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,61 +1694,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,55 +1706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,56 +1716,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2031,104 +1774,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -2144,176 +1789,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2346,12 +1847,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2364,21 +1862,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2387,7 +1876,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2410,9 +1898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2465,7 +1950,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2485,7 +1969,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2506,78 +1990,80 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="11">
+    <cellStyle name="1表头" xfId="6"/>
+    <cellStyle name="20% - 着色 2 2" xfId="3"/>
+    <cellStyle name="2填表文本" xfId="5"/>
+    <cellStyle name="表头" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="表头" xfId="26"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
-    <cellStyle name="汇总" xfId="32" builtinId="25"/>
-    <cellStyle name="好" xfId="33" builtinId="26"/>
-    <cellStyle name="适中" xfId="34" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="36" builtinId="29"/>
-    <cellStyle name="20% - 着色 2 2" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="普通数值" xfId="39"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="2填表文本" xfId="43"/>
-    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="1表头" xfId="46"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="47" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="48" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="55"/>
-    <cellStyle name="常规 4" xfId="56"/>
-    <cellStyle name="常规 5" xfId="57"/>
-    <cellStyle name="常规 3" xfId="58"/>
+    <cellStyle name="常规 2" xfId="7"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="常规 4" xfId="8"/>
+    <cellStyle name="常规 5" xfId="9"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="普通数值" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00EF8D8D"/>
-      <color rgb="00BCDBDE"/>
+      <color rgb="FFEF8D8D"/>
+      <color rgb="FFBCDBDE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2626,7 +2112,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2661,7 +2147,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2864,45 +2350,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E131"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.1296296296296" customWidth="1"/>
-    <col min="2" max="2" width="29.3796296296296" customWidth="1"/>
-    <col min="3" max="3" width="29.3796296296296" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.8425925925926" style="6" customWidth="1"/>
-    <col min="5" max="5" width="129" style="5" customWidth="1"/>
-    <col min="6" max="6" width="94.8611111111111" style="5" customWidth="1"/>
-    <col min="7" max="7" width="65.8611111111111" customWidth="1"/>
-    <col min="8" max="8" width="39.0925925925926" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="84" customWidth="1"/>
+    <col min="7" max="7" width="46.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:7">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10" t="s">
+    <row r="1" spans="1:9" s="92" customFormat="1" ht="43.2">
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" ht="45" customHeight="1" spans="1:7">
+      <c r="E1" s="90"/>
+      <c r="F1" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="89"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2911,2423 +2397,2423 @@
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="30" customHeight="1" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" ht="30" customHeight="1" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="1:9">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F5" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="H5" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="1:9">
-      <c r="A6" s="13" t="s">
+      <c r="B6" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="77"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="H6" s="78"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
+      <c r="A7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="72"/>
-    </row>
-    <row r="7" ht="68" customHeight="1" spans="1:7">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="21">
-        <v>1</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="85"/>
+      <c r="G7" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="19" t="s">
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1">
+      <c r="A8" s="19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A8" s="24" t="s">
+      <c r="B8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="C8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1">
+      <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A9" s="24" t="s">
+      <c r="B9" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="21">
-        <v>1</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="19" t="s">
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="A10" s="20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A10" s="25" t="s">
+      <c r="B10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="21">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="A11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="21">
-        <v>1</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="A12" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A12" s="24" t="s">
+      <c r="B12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="21">
-        <v>1</v>
-      </c>
-      <c r="E12" s="22" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1">
+      <c r="A13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="21">
-        <v>1</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:7">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:7">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="83" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:9">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="83" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>70</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" ht="21" customHeight="1" spans="1:7">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="83" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="22" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:8">
-      <c r="A18" s="27" t="s">
+      <c r="B18" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="22">
+        <v>1</v>
+      </c>
+      <c r="E18" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="28">
-        <v>1</v>
-      </c>
-      <c r="E18" s="22" t="s">
+      <c r="F18" s="9"/>
+      <c r="G18" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="27" t="s">
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:7">
-      <c r="A19" s="30" t="s">
+      <c r="B19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="C19" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="22">
+        <v>1</v>
+      </c>
+      <c r="E19" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="28">
-        <v>1</v>
-      </c>
-      <c r="E19" s="22" t="s">
+      <c r="F19" s="87"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:7">
-      <c r="A20" s="30" t="s">
+      <c r="B20" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="C20" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="22" t="s">
+      <c r="F20" s="87"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:7">
-      <c r="A21" s="30" t="s">
+      <c r="B21" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C21" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="28">
-        <v>1</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="F21" s="87"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:7">
-      <c r="A22" s="33" t="s">
+      <c r="B22" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="C22" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-      <c r="E22" s="22" t="s">
+      <c r="F22" s="87"/>
+      <c r="G22" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="33" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:7">
-      <c r="A23" s="33" t="s">
+      <c r="B23" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="C23" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22" t="s">
+      <c r="F23" s="87"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:7">
-      <c r="A24" s="33" t="s">
+      <c r="B24" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="C24" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="21">
-        <v>1</v>
-      </c>
-      <c r="E24" s="22" t="s">
+      <c r="F24" s="87"/>
+      <c r="G24" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="33" t="s">
+    </row>
+    <row r="25" spans="1:8" ht="15.6">
+      <c r="A25" s="15" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:7">
-      <c r="A25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="C25" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="21">
-        <v>1</v>
-      </c>
-      <c r="E25" s="22" t="s">
+      <c r="F25" s="85"/>
+      <c r="G25" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="19" t="s">
+    </row>
+    <row r="26" spans="1:8" ht="15.6">
+      <c r="A26" s="15" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" ht="30" customHeight="1" spans="1:7">
-      <c r="A26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="C26" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C26" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="21">
-        <v>1</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="F26" s="85"/>
+      <c r="G26" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6">
+      <c r="A27" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" ht="30" customHeight="1" spans="1:7">
-      <c r="A27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="C27" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="85"/>
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="31.2">
+      <c r="A28" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" ht="30" customHeight="1" spans="1:7">
-      <c r="A28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="C28" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="F28" s="85"/>
+      <c r="G28" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6">
+      <c r="A29" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="23"/>
-      <c r="G28" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" ht="30" customHeight="1" spans="1:7">
-      <c r="A29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="C29" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1</v>
-      </c>
-      <c r="E29" s="22" t="s">
+      <c r="F29" s="85"/>
+      <c r="G29" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6">
+      <c r="A30" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="19" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" ht="30" customHeight="1" spans="1:7">
-      <c r="A30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="85"/>
+      <c r="G30" s="16"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6">
+      <c r="A31" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="19"/>
-    </row>
-    <row r="31" ht="30" customHeight="1" spans="1:7">
-      <c r="A31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="D31" s="18"/>
+      <c r="E31" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22" t="s">
+      <c r="F31" s="85"/>
+      <c r="G31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6">
+      <c r="A32" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" ht="30" customHeight="1" spans="1:7">
-      <c r="A32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22" t="s">
+      <c r="F32" s="85"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
+      <c r="A33" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" ht="30" customHeight="1" spans="1:7">
-      <c r="A33" s="35" t="s">
+      <c r="B33" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="C33" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="22" t="s">
+      <c r="F33" s="85"/>
+      <c r="G33" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="36" t="s">
+    </row>
+    <row r="34" spans="1:9" ht="15.6">
+      <c r="A34" s="28" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="34" ht="30" customHeight="1" spans="1:7">
-      <c r="A34" s="35" t="s">
+      <c r="B34" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="C34" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" s="30">
+        <v>1</v>
+      </c>
+      <c r="E34" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="37">
-        <v>1</v>
-      </c>
-      <c r="E34" s="22" t="s">
+      <c r="F34" s="85"/>
+      <c r="G34" s="29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" ht="30" customHeight="1" spans="1:7">
-      <c r="A35" s="38" t="s">
+      <c r="B35" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="C35" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="D35" s="33">
+        <v>1</v>
+      </c>
+      <c r="E35" s="83" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="40">
-        <v>1</v>
-      </c>
-      <c r="E35" s="22" t="s">
+      <c r="F35" s="87"/>
+      <c r="G35" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" ht="30" customHeight="1" spans="1:9">
-      <c r="A36" s="38" t="s">
+      <c r="B36" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="C36" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="33">
+        <v>1</v>
+      </c>
+      <c r="E36" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="40">
-        <v>1</v>
-      </c>
-      <c r="E36" s="22" t="s">
+      <c r="F36" s="87"/>
+      <c r="G36" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="39" t="s">
+      <c r="H36" s="34"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="H36" s="42"/>
-      <c r="I36" s="39"/>
-    </row>
-    <row r="37" ht="30" customHeight="1" spans="1:9">
-      <c r="A37" s="38" t="s">
+      <c r="B37" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="C37" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="33">
+        <v>1</v>
+      </c>
+      <c r="E37" s="83" t="s">
         <v>150</v>
       </c>
-      <c r="C37" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="D37" s="40">
-        <v>1</v>
-      </c>
-      <c r="E37" s="22" t="s">
+      <c r="F37" s="87"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" spans="1:9" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="39"/>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="D38" s="36">
+        <v>1</v>
+      </c>
+      <c r="E38" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D38" s="44">
-        <v>1</v>
-      </c>
-      <c r="E38" s="22" t="s">
+      <c r="F38" s="87"/>
+      <c r="G38" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="37"/>
+    </row>
+    <row r="39" spans="1:9" s="2" customFormat="1">
+      <c r="A39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="D39" s="36">
+        <v>1</v>
+      </c>
+      <c r="E39" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="D39" s="44">
-        <v>1</v>
-      </c>
-      <c r="E39" s="22" t="s">
+      <c r="F39" s="87"/>
+      <c r="G39" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="37"/>
+    </row>
+    <row r="40" spans="1:9" s="2" customFormat="1">
+      <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" s="38">
+        <v>1</v>
+      </c>
+      <c r="E40" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="C40" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="46">
-        <v>1</v>
-      </c>
-      <c r="E40" s="22" t="s">
+      <c r="F40" s="87"/>
+      <c r="G40" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="37"/>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1">
+      <c r="A41" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A41" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="D41" s="39">
+        <v>1</v>
+      </c>
+      <c r="E41" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="47">
-        <v>1</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="F41" s="87"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="H41" s="48"/>
-    </row>
-    <row r="42" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A42" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="D42" s="39">
+        <v>1</v>
+      </c>
+      <c r="E42" s="83" t="s">
         <v>169</v>
       </c>
-      <c r="D42" s="47">
-        <v>1</v>
-      </c>
-      <c r="E42" s="22" t="s">
+      <c r="F42" s="87"/>
+      <c r="G42" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="1:9" s="4" customFormat="1">
+      <c r="A43" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H42" s="48"/>
-    </row>
-    <row r="43" s="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A43" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="D43" s="41">
+        <v>1</v>
+      </c>
+      <c r="E43" s="83" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="32" t="s">
+      <c r="F43" s="87"/>
+      <c r="G43" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="49">
-        <v>1</v>
-      </c>
-      <c r="E43" s="22" t="s">
+      <c r="H43" s="42"/>
+    </row>
+    <row r="44" spans="1:9" s="4" customFormat="1">
+      <c r="A44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="H43" s="50"/>
-    </row>
-    <row r="44" s="4" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A44" s="4" t="s">
+      <c r="C44" s="81" t="s">
+        <v>456</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="87"/>
+      <c r="H44" s="42"/>
+    </row>
+    <row r="45" spans="1:9" s="2" customFormat="1">
+      <c r="A45" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C44" s="32" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="41"/>
-      <c r="H44" s="50"/>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D45" s="38">
+        <v>2</v>
+      </c>
+      <c r="E45" s="83"/>
+      <c r="F45" s="87" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="G45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="46">
+      <c r="B46" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="45">
         <v>2</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H45" s="45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="1:7">
-      <c r="A46" s="52" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="52" t="s">
+      <c r="E46" s="83"/>
+      <c r="F46" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="G46" s="44"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="B47" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="D46" s="53">
+      <c r="C47" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" s="87"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="F48" s="87"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="48">
+        <v>1</v>
+      </c>
+      <c r="E49" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="87"/>
+      <c r="G49" s="47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="48">
+        <v>1</v>
+      </c>
+      <c r="E50" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="87"/>
+      <c r="G50" s="47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B51" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="F51" s="87"/>
+      <c r="G51" s="47"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="87"/>
+      <c r="G52" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" s="49"/>
+      <c r="I52" s="49"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53" s="51"/>
+      <c r="E53" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="F53" s="87"/>
+      <c r="G53" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H53" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="17"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="83" t="s">
+        <v>214</v>
+      </c>
+      <c r="F54" s="87"/>
+      <c r="G54" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H54" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D55" s="51"/>
+      <c r="E55" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="F55" s="87"/>
+      <c r="G55" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="87"/>
+      <c r="G56" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" s="51"/>
+      <c r="E57" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="87"/>
+      <c r="G57" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="83" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="87"/>
+      <c r="G58" s="50"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C59" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D59" s="54"/>
+      <c r="E59" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="F59" s="88"/>
+      <c r="G59" s="52"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="55" t="s">
+        <v>233</v>
+      </c>
+      <c r="B60" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="D60" s="51">
+        <v>1</v>
+      </c>
+      <c r="E60" s="83" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" s="87"/>
+      <c r="G60" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="57"/>
+      <c r="E61" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="87"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="14"/>
+      <c r="E62" s="83" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" s="87"/>
+      <c r="G62" s="60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D63" s="62"/>
+      <c r="E63" s="83">
+        <v>1226354</v>
+      </c>
+      <c r="F63" s="87"/>
+      <c r="G63" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="61" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="62"/>
+      <c r="E64" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="F64" s="87"/>
+      <c r="G64" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65" s="87"/>
+      <c r="G65" s="61"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="61" t="s">
+        <v>255</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D66" s="62"/>
+      <c r="E66" s="83" t="s">
+        <v>258</v>
+      </c>
+      <c r="F66" s="87"/>
+      <c r="G66" s="61"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="B67" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="65">
+        <v>1</v>
+      </c>
+      <c r="E67" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="F67" s="87"/>
+      <c r="G67" s="64" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" s="65">
+        <v>1</v>
+      </c>
+      <c r="E68" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="F68" s="87"/>
+      <c r="G68" s="64"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="B69" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D69" s="65">
+        <v>1</v>
+      </c>
+      <c r="E69" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="F69" s="87"/>
+      <c r="G69" s="64"/>
+    </row>
+    <row r="70" spans="1:7" ht="15">
+      <c r="A70" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B70" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="65"/>
+      <c r="E70" s="83" t="s">
+        <v>272</v>
+      </c>
+      <c r="F70" s="87"/>
+      <c r="G70" s="66" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" s="65">
         <v>2</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="G46" s="52"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="1:7">
-      <c r="A47" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="54"/>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="1:7">
-      <c r="A48" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="54"/>
-    </row>
-    <row r="49" ht="30" customHeight="1" spans="1:7">
-      <c r="A49" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="55" t="s">
-        <v>196</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="56">
-        <v>1</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" ht="30" customHeight="1" spans="1:7">
-      <c r="A50" s="55" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>200</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="56">
-        <v>1</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="51" ht="30" customHeight="1" spans="1:7">
-      <c r="A51" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="55"/>
-    </row>
-    <row r="52" ht="30" customHeight="1" spans="1:9">
-      <c r="A52" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-    </row>
-    <row r="53" ht="30" customHeight="1" spans="1:8">
-      <c r="A53" s="58" t="s">
-        <v>211</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" ht="30" customHeight="1" spans="1:8">
-      <c r="A54" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H54" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" ht="30" customHeight="1" spans="1:8">
-      <c r="A55" s="58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>219</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D55" s="59"/>
-      <c r="E55" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" ht="30" customHeight="1" spans="1:8">
-      <c r="A56" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="20"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H56" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" ht="30" customHeight="1" spans="1:8">
-      <c r="A57" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="D57" s="59"/>
-      <c r="E57" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H57" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" ht="30" customHeight="1" spans="1:7">
-      <c r="A58" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="B58" s="58" t="s">
-        <v>230</v>
-      </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="F58" s="31"/>
-      <c r="G58" s="58"/>
-    </row>
-    <row r="59" ht="30" customHeight="1" spans="1:7">
-      <c r="A59" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="B59" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>234</v>
-      </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="F59" s="63"/>
-      <c r="G59" s="60"/>
-    </row>
-    <row r="60" ht="94" customHeight="1" spans="1:8">
-      <c r="A60" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>237</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" s="59">
-        <v>1</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" ht="30" customHeight="1" spans="1:9">
-      <c r="A61" s="65" t="s">
-        <v>240</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>241</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="D61" s="66"/>
-      <c r="E61" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="F61" s="31"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-    </row>
-    <row r="62" ht="30" customHeight="1" spans="1:7">
-      <c r="A62" s="69" t="s">
-        <v>244</v>
-      </c>
-      <c r="B62" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" ht="30" customHeight="1" spans="1:8">
-      <c r="A63" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="B63" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D63" s="71"/>
-      <c r="E63" s="22">
-        <v>1226354</v>
-      </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H63" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" ht="30" customHeight="1" spans="1:8">
-      <c r="A64" s="70" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>252</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="D64" s="71"/>
-      <c r="E64" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="58" t="s">
-        <v>171</v>
-      </c>
-      <c r="H64" s="29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" ht="30" customHeight="1" spans="1:7">
-      <c r="A65" s="70" t="s">
-        <v>255</v>
-      </c>
-      <c r="B65" s="70" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="20"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="70"/>
-    </row>
-    <row r="66" ht="30" customHeight="1" spans="1:7">
-      <c r="A66" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="B66" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" s="71"/>
-      <c r="E66" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="70"/>
-    </row>
-    <row r="67" ht="30" customHeight="1" spans="1:7">
-      <c r="A67" s="73" t="s">
+      <c r="E71" s="83"/>
+      <c r="F71" s="87" t="s">
+        <v>276</v>
+      </c>
+      <c r="G71" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="B67" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="C67" s="20" t="s">
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B72" s="64" t="s">
+        <v>278</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="D72" s="65"/>
+      <c r="E72" s="83" t="s">
+        <v>280</v>
+      </c>
+      <c r="F72" s="87"/>
+      <c r="G72" s="64" t="s">
         <v>262</v>
       </c>
-      <c r="D67" s="74">
-        <v>1</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="68" ht="30" customHeight="1" spans="1:7">
-      <c r="A68" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="B68" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="74">
-        <v>1</v>
-      </c>
-      <c r="E68" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="73"/>
-    </row>
-    <row r="69" ht="30" customHeight="1" spans="1:7">
-      <c r="A69" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="B69" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" s="74">
-        <v>1</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="73"/>
-    </row>
-    <row r="70" ht="30" customHeight="1" spans="1:7">
-      <c r="A70" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="B70" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D70" s="74"/>
-      <c r="E70" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="75" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="71" ht="30" customHeight="1" spans="1:7">
-      <c r="A71" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D71" s="74">
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" s="65"/>
+      <c r="E73" s="83" t="s">
+        <v>284</v>
+      </c>
+      <c r="F73" s="87"/>
+      <c r="G73" s="64"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="64" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" s="65">
+        <v>1</v>
+      </c>
+      <c r="E74" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="F74" s="87"/>
+      <c r="G74" s="64"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D75" s="65"/>
+      <c r="E75" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" s="87"/>
+      <c r="G75" s="64"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="64" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="65"/>
+      <c r="E76" s="83" t="s">
+        <v>296</v>
+      </c>
+      <c r="F76" s="87"/>
+      <c r="G76" s="64"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="64" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D77" s="65"/>
+      <c r="E77" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="F77" s="87"/>
+      <c r="G77" s="64"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="65"/>
+      <c r="E78" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="F78" s="87"/>
+      <c r="G78" s="64"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="65"/>
+      <c r="E79" s="83" t="s">
+        <v>304</v>
+      </c>
+      <c r="F79" s="87"/>
+      <c r="G79" s="64"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="67" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="D80" s="68">
         <v>2</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="G71" s="73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="72" ht="30" customHeight="1" spans="1:7">
-      <c r="A72" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="B72" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D72" s="74"/>
-      <c r="E72" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F72" s="31"/>
-      <c r="G72" s="73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="73" ht="30" customHeight="1" spans="1:7">
-      <c r="A73" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="B73" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D73" s="74"/>
-      <c r="E73" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="73"/>
-    </row>
-    <row r="74" ht="30" customHeight="1" spans="1:7">
-      <c r="A74" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="B74" s="73" t="s">
-        <v>289</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D74" s="74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="73"/>
-    </row>
-    <row r="75" ht="30" customHeight="1" spans="1:7">
-      <c r="A75" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="B75" s="73" t="s">
-        <v>293</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="74"/>
-      <c r="E75" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="73"/>
-    </row>
-    <row r="76" ht="30" customHeight="1" spans="1:7">
-      <c r="A76" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="B76" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D76" s="74"/>
-      <c r="E76" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="F76" s="31"/>
-      <c r="G76" s="73"/>
-    </row>
-    <row r="77" ht="30" customHeight="1" spans="1:7">
-      <c r="A77" s="73" t="s">
-        <v>300</v>
-      </c>
-      <c r="B77" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D77" s="74"/>
-      <c r="E77" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="73"/>
-    </row>
-    <row r="78" ht="30" customHeight="1" spans="1:7">
-      <c r="A78" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="B78" s="73" t="s">
+      <c r="E80" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="F80" s="87" t="s">
+        <v>458</v>
+      </c>
+      <c r="G80" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="B81" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="C81" s="17"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="83" t="s">
+        <v>308</v>
+      </c>
+      <c r="F81" s="87"/>
+      <c r="G81" s="67" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="C78" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="D78" s="74"/>
-      <c r="E78" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="F78" s="31"/>
-      <c r="G78" s="73"/>
-    </row>
-    <row r="79" ht="30" customHeight="1" spans="1:7">
-      <c r="A79" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="B79" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D79" s="74"/>
-      <c r="E79" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="F79" s="31"/>
-      <c r="G79" s="73"/>
-    </row>
-    <row r="80" ht="30" customHeight="1" spans="1:7">
-      <c r="A80" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="B80" s="76" t="s">
-        <v>309</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D80" s="77">
-        <v>2</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="F80" s="41" t="s">
+      <c r="B82" s="67" t="s">
         <v>312</v>
       </c>
-      <c r="G80" s="76" t="s">
+      <c r="C82" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D82" s="68"/>
+      <c r="E82" s="83" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="81" ht="30" customHeight="1" spans="1:7">
-      <c r="A81" s="76" t="s">
+      <c r="F82" s="87"/>
+      <c r="G82" s="67"/>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B81" s="76" t="s">
+      <c r="B83" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="F81" s="31"/>
-      <c r="G81" s="76" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="82" ht="30" customHeight="1" spans="1:7">
-      <c r="A82" s="76" t="s">
-        <v>306</v>
-      </c>
-      <c r="B82" s="76" t="s">
+      <c r="C83" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="C82" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D82" s="77"/>
-      <c r="E82" s="22" t="s">
+      <c r="D83" s="62"/>
+      <c r="E83" s="83" t="s">
         <v>317</v>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="76"/>
-    </row>
-    <row r="83" ht="30" customHeight="1" spans="1:7">
-      <c r="A83" s="70" t="s">
+      <c r="F83" s="87"/>
+      <c r="G83" s="61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="B83" s="70" t="s">
+      <c r="B84" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="C83" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="D83" s="71"/>
-      <c r="E83" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" ht="51" customHeight="1" spans="1:9">
-      <c r="A84" s="76" t="s">
-        <v>322</v>
-      </c>
-      <c r="B84" s="76" t="s">
-        <v>323</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D84" s="78"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="31"/>
+      <c r="C84" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" s="69"/>
+      <c r="E84" s="83"/>
+      <c r="F84" s="87"/>
       <c r="G84" s="7"/>
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" s="57"/>
-    </row>
-    <row r="85" ht="30" customHeight="1" spans="1:9">
-      <c r="A85" s="76" t="s">
+      <c r="I84" s="49"/>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="B85" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D85" s="69"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="7"/>
+      <c r="I85" s="49"/>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="B85" s="76" t="s">
+      <c r="D86" s="69">
+        <v>1</v>
+      </c>
+      <c r="E86" s="83" t="s">
         <v>325</v>
       </c>
-      <c r="C85" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D85" s="78"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="7"/>
-      <c r="I85" s="57"/>
-    </row>
-    <row r="86" ht="56" customHeight="1" spans="1:7">
-      <c r="A86" s="76" t="s">
+      <c r="F86" s="87"/>
+      <c r="G86" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B86" s="76" t="s">
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="B87" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="D86" s="78">
-        <v>1</v>
-      </c>
-      <c r="E86" s="22" t="s">
+      <c r="C87" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="7" t="s">
+      <c r="D87" s="69"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="61"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="67" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="87" ht="30" customHeight="1" spans="1:7">
-      <c r="A87" s="76" t="s">
+      <c r="B88" s="67" t="s">
         <v>331</v>
       </c>
-      <c r="B87" s="76" t="s">
+      <c r="C88" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="69"/>
+      <c r="E88" s="83"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="61"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="7"/>
+      <c r="B89" s="61" t="s">
         <v>332</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="C89" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="D87" s="78"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="70"/>
-    </row>
-    <row r="88" ht="30" customHeight="1" spans="1:7">
-      <c r="A88" s="76" t="s">
+      <c r="D89" s="62">
+        <v>1</v>
+      </c>
+      <c r="E89" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="F89" s="87"/>
+      <c r="G89" s="61"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="C88" s="20" t="s">
-        <v>334</v>
-      </c>
-      <c r="D88" s="78"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="70"/>
-    </row>
-    <row r="89" ht="30" customHeight="1" spans="1:7">
-      <c r="A89" s="7"/>
-      <c r="B89" s="70" t="s">
+      <c r="B90" s="70" t="s">
         <v>336</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C90" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="D90" s="71">
+        <v>1</v>
+      </c>
+      <c r="E90" s="83" t="s">
         <v>337</v>
       </c>
-      <c r="D89" s="71">
-        <v>1</v>
-      </c>
-      <c r="E89" s="22" t="s">
+      <c r="F90" s="87"/>
+      <c r="G90" s="70"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="F89" s="31"/>
-      <c r="G89" s="70"/>
-    </row>
-    <row r="90" ht="30" customHeight="1" spans="1:7">
-      <c r="A90" s="79" t="s">
+      <c r="B91" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="C91" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C90" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D90" s="80">
-        <v>1</v>
-      </c>
-      <c r="E90" s="22" t="s">
+      <c r="D91" s="71"/>
+      <c r="E91" s="83" t="s">
         <v>341</v>
       </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="79"/>
-    </row>
-    <row r="91" ht="30" customHeight="1" spans="1:7">
-      <c r="A91" s="79" t="s">
+      <c r="F91" s="87"/>
+      <c r="G91" s="70"/>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="70" t="s">
         <v>342</v>
       </c>
-      <c r="B91" s="79" t="s">
+      <c r="B92" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C92" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D91" s="80"/>
-      <c r="E91" s="22" t="s">
+      <c r="D92" s="71"/>
+      <c r="E92" s="83" t="s">
+        <v>341</v>
+      </c>
+      <c r="F92" s="87"/>
+      <c r="G92" s="70"/>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="70" t="s">
         <v>345</v>
       </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="79"/>
-    </row>
-    <row r="92" ht="30" customHeight="1" spans="1:7">
-      <c r="A92" s="79" t="s">
+      <c r="B93" s="70" t="s">
         <v>346</v>
       </c>
-      <c r="B92" s="79" t="s">
+      <c r="C93" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="D93" s="71">
+        <v>1</v>
+      </c>
+      <c r="E93" s="83" t="s">
         <v>348</v>
       </c>
-      <c r="D92" s="80"/>
-      <c r="E92" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="F92" s="31"/>
-      <c r="G92" s="79"/>
-    </row>
-    <row r="93" ht="30" customHeight="1" spans="1:7">
-      <c r="A93" s="79" t="s">
+      <c r="F93" s="87"/>
+      <c r="G93" s="70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="70" t="s">
         <v>349</v>
       </c>
-      <c r="B93" s="79" t="s">
+      <c r="B94" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C94" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="D93" s="80">
-        <v>1</v>
-      </c>
-      <c r="E93" s="22" t="s">
+      <c r="D94" s="70"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="87"/>
+      <c r="G94" s="70"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="F93" s="31"/>
-      <c r="G93" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="94" ht="30" customHeight="1" spans="1:7">
-      <c r="A94" s="79" t="s">
+      <c r="B95" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="C95" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C94" s="32" t="s">
+      <c r="D95" s="69"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D94" s="79"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="79"/>
-    </row>
-    <row r="95" ht="30" customHeight="1" spans="1:7">
-      <c r="A95" s="79" t="s">
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="70" t="s">
         <v>356</v>
       </c>
-      <c r="B95" s="79" t="s">
+      <c r="B96" s="70" t="s">
         <v>357</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C96" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="D95" s="78"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="7" t="s">
+      <c r="D96" s="69">
+        <v>1</v>
+      </c>
+      <c r="E96" s="83" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="96" ht="30" customHeight="1" spans="1:7">
-      <c r="A96" s="79" t="s">
+      <c r="F96" s="87"/>
+      <c r="G96" s="7"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B96" s="79" t="s">
+      <c r="B97" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="C96" s="32" t="s">
+      <c r="C97" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" s="69"/>
+      <c r="E97" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" s="87"/>
+      <c r="G97" s="70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="D96" s="78">
-        <v>1</v>
-      </c>
-      <c r="E96" s="22" t="s">
+      <c r="B98" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="F96" s="31"/>
-      <c r="G96" s="7"/>
-    </row>
-    <row r="97" ht="30" customHeight="1" spans="1:7">
-      <c r="A97" s="79" t="s">
+      <c r="C98" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="B97" s="79" t="s">
+      <c r="D98" s="69"/>
+      <c r="E98" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="F98" s="87"/>
+      <c r="G98" s="70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="70" t="s">
         <v>365</v>
       </c>
-      <c r="C97" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="D97" s="78"/>
-      <c r="E97" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F97" s="31"/>
-      <c r="G97" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="98" ht="30" customHeight="1" spans="1:7">
-      <c r="A98" s="79" t="s">
+      <c r="B99" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="C99" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="D99" s="69"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="87"/>
+      <c r="G99" s="7"/>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="7"/>
+      <c r="B100" s="70" t="s">
         <v>368</v>
       </c>
-      <c r="D98" s="78"/>
-      <c r="E98" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="F98" s="31"/>
-      <c r="G98" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" ht="30" customHeight="1" spans="1:7">
-      <c r="A99" s="79" t="s">
+      <c r="C100" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B99" s="79" t="s">
+      <c r="D100" s="69"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="87"/>
+      <c r="G100" s="70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="70" t="s">
         <v>370</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="B101" s="70" t="s">
         <v>371</v>
       </c>
-      <c r="D99" s="78"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="7"/>
-    </row>
-    <row r="100" ht="30" customHeight="1" spans="1:7">
-      <c r="A100" s="7"/>
-      <c r="B100" s="79" t="s">
+      <c r="C101" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="D101" s="69">
+        <v>2</v>
+      </c>
+      <c r="E101" s="83"/>
+      <c r="F101" s="87" t="s">
         <v>373</v>
       </c>
-      <c r="D100" s="78"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="101" ht="30" customHeight="1" spans="1:7">
-      <c r="A101" s="79" t="s">
+      <c r="G101" s="7"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="B101" s="79" t="s">
+      <c r="B102" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C102" s="17"/>
+      <c r="D102" s="69"/>
+      <c r="E102" s="83" t="s">
         <v>376</v>
       </c>
-      <c r="D101" s="78">
+      <c r="F102" s="87"/>
+      <c r="G102" s="7"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="B103" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="D103" s="69">
         <v>2</v>
       </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="41" t="s">
-        <v>377</v>
-      </c>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" ht="30" customHeight="1" spans="1:7">
-      <c r="A102" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="B102" s="79" t="s">
-        <v>379</v>
-      </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="78"/>
-      <c r="E102" s="22" t="s">
+      <c r="E103" s="83"/>
+      <c r="F103" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="F102" s="31"/>
-      <c r="G102" s="7"/>
-    </row>
-    <row r="103" ht="30" customHeight="1" spans="1:7">
-      <c r="A103" s="79" t="s">
+      <c r="G103" s="70"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="B103" s="79" t="s">
+      <c r="B104" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C104" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="D103" s="78">
-        <v>2</v>
-      </c>
-      <c r="E103" s="22"/>
-      <c r="F103" s="41" t="s">
+      <c r="D104" s="69"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="87"/>
+      <c r="G104" s="7"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="70" t="s">
         <v>384</v>
       </c>
-      <c r="G103" s="79"/>
-    </row>
-    <row r="104" ht="30" customHeight="1" spans="1:7">
-      <c r="A104" s="79" t="s">
+      <c r="B105" s="70" t="s">
         <v>385</v>
       </c>
-      <c r="B104" s="79" t="s">
+      <c r="C105" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="D105" s="69"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="7"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="70" t="s">
         <v>387</v>
       </c>
-      <c r="D104" s="78"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="7"/>
-    </row>
-    <row r="105" ht="30" customHeight="1" spans="1:7">
-      <c r="A105" s="79" t="s">
+      <c r="B106" s="70" t="s">
         <v>388</v>
       </c>
-      <c r="B105" s="79" t="s">
+      <c r="C106" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="D106" s="69"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="87"/>
+      <c r="G106" s="7"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="70" t="s">
         <v>390</v>
       </c>
-      <c r="D105" s="78"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="7"/>
-    </row>
-    <row r="106" ht="30" customHeight="1" spans="1:7">
-      <c r="A106" s="79" t="s">
+      <c r="B107" s="70" t="s">
         <v>391</v>
       </c>
-      <c r="B106" s="79" t="s">
+      <c r="C107" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="D107" s="69"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="87"/>
+      <c r="G107" s="7"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="D106" s="78"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="7"/>
-    </row>
-    <row r="107" ht="30" customHeight="1" spans="1:7">
-      <c r="A107" s="79" t="s">
+      <c r="B108" s="70" t="s">
         <v>394</v>
       </c>
-      <c r="B107" s="79" t="s">
+      <c r="C108" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="D108" s="69"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="87"/>
+      <c r="G108" s="7"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="70" t="s">
         <v>396</v>
       </c>
-      <c r="D107" s="78"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="7"/>
-    </row>
-    <row r="108" ht="30" customHeight="1" spans="1:7">
-      <c r="A108" s="79" t="s">
+      <c r="B109" s="70" t="s">
         <v>397</v>
       </c>
-      <c r="B108" s="79" t="s">
+      <c r="C109" s="72" t="s">
         <v>398</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="D109" s="69"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="87"/>
+      <c r="G109" s="7"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="70" t="s">
         <v>399</v>
       </c>
-      <c r="D108" s="78"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="7"/>
-    </row>
-    <row r="109" ht="30" customHeight="1" spans="1:7">
-      <c r="A109" s="79" t="s">
+      <c r="B110" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="B109" s="79" t="s">
+      <c r="C110" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="C109" s="81" t="s">
+      <c r="D110" s="69"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="87"/>
+      <c r="G110" s="7"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D109" s="78"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="7"/>
-    </row>
-    <row r="110" ht="30" customHeight="1" spans="1:7">
-      <c r="A110" s="79" t="s">
+      <c r="B111" s="73" t="s">
         <v>403</v>
       </c>
-      <c r="B110" s="79" t="s">
+      <c r="C111" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="D111" s="69"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="87"/>
+      <c r="G111" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="C110" s="20" t="s">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D110" s="78"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="7"/>
-    </row>
-    <row r="111" ht="30" customHeight="1" spans="1:7">
-      <c r="A111" s="7" t="s">
+      <c r="B112" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="B111" s="82" t="s">
+      <c r="C112" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112" s="69"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="87"/>
+      <c r="G112" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C111" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D111" s="78"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="3" t="s">
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="7" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="112" ht="30" customHeight="1" spans="1:7">
-      <c r="A112" s="7" t="s">
+      <c r="B113" s="73" t="s">
         <v>409</v>
       </c>
-      <c r="B112" s="82" t="s">
+      <c r="C113" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D113" s="69"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="87"/>
+      <c r="G113" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C112" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D112" s="78"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="3" t="s">
+      <c r="B114" s="8" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="113" ht="30" customHeight="1" spans="1:7">
-      <c r="A113" s="7" t="s">
+      <c r="C114" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="D114" s="69"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="87"/>
+      <c r="G114" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B113" s="82" t="s">
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="C113" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D113" s="78"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="114" ht="30" customHeight="1" spans="1:7">
-      <c r="A114" s="7" t="s">
+      <c r="B115" s="73" t="s">
         <v>414</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="C115" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="D115" s="69"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="87"/>
+      <c r="G115" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B116" s="73" t="s">
         <v>415</v>
       </c>
-      <c r="C114" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="D114" s="78"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="3" t="s">
+      <c r="C116" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="D116" s="69"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="87"/>
+      <c r="G116" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="7" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="115" ht="30" customHeight="1" spans="1:7">
-      <c r="A115" s="7" t="s">
+      <c r="B117" s="73" t="s">
         <v>417</v>
       </c>
-      <c r="B115" s="82" t="s">
+      <c r="C117" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="D117" s="69"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C115" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D115" s="78"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="116" ht="30" customHeight="1" spans="1:7">
-      <c r="A116" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B116" s="82" t="s">
+      <c r="B118" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="C116" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="D116" s="78"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="117" ht="30" customHeight="1" spans="1:7">
-      <c r="A117" s="7" t="s">
+      <c r="C118" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="D118" s="69"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="87"/>
+      <c r="G118" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B117" s="82" t="s">
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="C117" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="D117" s="78"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="118" ht="30" customHeight="1" spans="1:7">
-      <c r="A118" s="7" t="s">
+      <c r="B119" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="B118" s="82" t="s">
+      <c r="C119" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="C118" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="D118" s="78"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="3" t="s">
+      <c r="D119" s="69"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="87"/>
+      <c r="G119" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="119" ht="30" customHeight="1" spans="1:7">
-      <c r="A119" s="7" t="s">
+    <row r="120" spans="1:7">
+      <c r="A120" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B120" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C119" s="32" t="s">
+      <c r="C120" s="25" t="s">
         <v>427</v>
       </c>
-      <c r="D119" s="78"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="3" t="s">
+      <c r="D120" s="69"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="87"/>
+      <c r="G120" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="120" ht="30" customHeight="1" spans="1:7">
-      <c r="A120" s="7" t="s">
+    <row r="121" spans="1:7">
+      <c r="A121" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B121" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="C120" s="32" t="s">
+      <c r="C121" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D121" s="69"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="D120" s="78"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="3" t="s">
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="7" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="121" ht="30" customHeight="1" spans="1:7">
-      <c r="A121" s="7" t="s">
+      <c r="B122" s="73" t="s">
         <v>433</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="C122" s="17" t="s">
+        <v>432</v>
+      </c>
+      <c r="D122" s="69"/>
+      <c r="E122" s="83"/>
+      <c r="F122" s="87"/>
+      <c r="G122" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C121" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="D121" s="78"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="3" t="s">
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="7" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="122" ht="30" customHeight="1" spans="1:7">
-      <c r="A122" s="7" t="s">
+      <c r="B123" s="73" t="s">
         <v>436</v>
       </c>
-      <c r="B122" s="82" t="s">
+      <c r="C123" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D123" s="69"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="C122" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D122" s="78"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="3" t="s">
+      <c r="B124" s="73" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="123" ht="21" customHeight="1" spans="1:7">
-      <c r="A123" s="7" t="s">
+      <c r="C124" s="25" t="s">
         <v>439</v>
       </c>
-      <c r="B123" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="C123" s="78" t="s">
-        <v>439</v>
-      </c>
-      <c r="D123" s="78"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
-      <c r="A124" s="83" t="s">
-        <v>441</v>
-      </c>
-      <c r="B124" s="82" t="s">
-        <v>442</v>
-      </c>
-      <c r="C124" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="D124" s="78"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="31"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="87"/>
       <c r="G124" s="3"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="B125" s="73" t="s">
+        <v>441</v>
+      </c>
+      <c r="C125" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="D125" s="69"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="87"/>
+      <c r="G125" s="3"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="B126" s="73" t="s">
+        <v>443</v>
+      </c>
+      <c r="C126" s="82" t="s">
+        <v>457</v>
+      </c>
+      <c r="D126" s="69">
+        <v>1</v>
+      </c>
+      <c r="E126" s="83" t="s">
         <v>444</v>
       </c>
-      <c r="B125" s="82" t="s">
-        <v>445</v>
-      </c>
-      <c r="C125" s="78" t="s">
-        <v>444</v>
-      </c>
-      <c r="D125" s="78"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="3"/>
-    </row>
-    <row r="126" ht="72" customHeight="1" spans="1:7">
-      <c r="A126" s="82" t="s">
-        <v>446</v>
-      </c>
-      <c r="B126" s="82" t="s">
-        <v>447</v>
-      </c>
-      <c r="C126" s="78" t="s">
-        <v>446</v>
-      </c>
-      <c r="D126" s="78">
-        <v>1</v>
-      </c>
-      <c r="E126" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="F126" s="31"/>
+      <c r="F126" s="87"/>
       <c r="G126" s="3"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>449</v>
-      </c>
-      <c r="B127" s="82" t="s">
-        <v>450</v>
-      </c>
-      <c r="C127" s="78" t="s">
-        <v>449</v>
-      </c>
-      <c r="D127" s="78"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="31"/>
+        <v>445</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="C127" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="D127" s="69"/>
+      <c r="E127" s="83"/>
+      <c r="F127" s="87"/>
       <c r="G127" s="3"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B128" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C128" s="69" t="s">
+        <v>447</v>
+      </c>
+      <c r="D128" s="69"/>
+      <c r="E128" s="83"/>
+      <c r="F128" s="87"/>
+      <c r="G128" s="3"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="73" t="s">
+        <v>449</v>
+      </c>
+      <c r="B129" s="73" t="s">
+        <v>450</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="B128" s="82" t="s">
+      <c r="D129" s="69"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="87"/>
+      <c r="G129" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C128" s="78" t="s">
-        <v>451</v>
-      </c>
-      <c r="D128" s="78"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="82" t="s">
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="73" t="s">
         <v>453</v>
       </c>
-      <c r="B129" s="82" t="s">
+      <c r="B130" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="C129" s="32" t="s">
+      <c r="C130" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="D130" s="69"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="87"/>
+      <c r="G130" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="B131" s="73" t="s">
         <v>455</v>
       </c>
-      <c r="D129" s="78"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="B130" s="82" t="s">
-        <v>458</v>
-      </c>
-      <c r="C130" s="78" t="s">
-        <v>457</v>
-      </c>
-      <c r="D130" s="78"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="B131" s="82" t="s">
-        <v>459</v>
-      </c>
-      <c r="C131" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="D131" s="78"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="31"/>
+      <c r="C131" s="69" t="s">
+        <v>303</v>
+      </c>
+      <c r="D131" s="69"/>
+      <c r="E131" s="83"/>
+      <c r="F131" s="87"/>
       <c r="G131" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sharedata/exceldata/excel/all/U-UI内容表.xlsx
+++ b/sharedata/exceldata/excel/all/U-UI内容表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="32700" windowHeight="15280"/>
   </bookViews>
   <sheets>
     <sheet name="ui内容表" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="459">
   <si>
     <t>1小的帮助框
 2大的带标题的
@@ -575,6 +570,9 @@
     <t>ChildCenterUI</t>
   </si>
   <si>
+    <t>育儿所</t>
+  </si>
+  <si>
     <t>儿女的天资由出生时母亲的亲密度决定，亲密度越高，获得的高天资儿女的几率越高//儿女的天资决定了儿女的等级上限，天资越高，等级上限越高//每次教导会增加儿女的经验值，经验值满儿女会升级//每次教导需要消耗儿女1点心情值，心情值每2小时恢复1点//教导值由母亲当前亲密度决定，亲密度越高，教导值越高//心情值上限跟VIP等级有关，详情请见VIP界面//儿女等级达到上限之后可以进行成人礼，成人礼完毕后的儿女离开育儿所，儿女的属性直接加成在帮力上</t>
   </si>
   <si>
@@ -610,6 +608,13 @@
     <t>分解</t>
   </si>
   <si>
+    <t>[1]={title = "头目碎片分解", [1] = "分解头目碎片返还头目货币以及金钱", [2] = "分解头目碎片返还头目货币以及金钱"},
+[2]={title = "装备分解", [1] = "所有装备都可以分解，根据装备品质返还地下货币，红色装备除返还地下货币外，同时返还部分红色装备精华", [2] = "返还装备升级过程中消耗的所有金钱", [3] = "返还装备精炼过程中消耗的所有装备精炼石"},
+[3]={title = "头目重生", [1] = "头目突破过程中消耗的金钱不返还", [2] = "返还头目升级过程中消耗的所有金钱", [3] = "返还头目升星过程中消耗的所有同名头目碎片", [4] = "返还天命升级过程中消耗的所有基因药剂", [5] = "返还培养过程中消耗的所有道具"},
+[4]={title = "装备重生",  [1] = "返还装备强化过程中消耗的所有金钱", [2] = "返还装备精炼过程中消耗的所有精炼石", [3] = "返还装备升星过程中消耗的所有金钱和同名装备碎片"},
+[5]={title = "宝物重生", [1] = "重生后，初始宝物得到保留，同时返还宝物精炼过程中消耗的同名宝物", [2] = "返还宝物强化过程中消耗的所有金钱", [3] = "返还精炼过程中消耗的所有宝物精炼石和金钱"}</t>
+  </si>
+  <si>
     <t>装备多选界面</t>
   </si>
   <si>
@@ -984,6 +989,12 @@
   </si>
   <si>
     <t>沙龙帮助</t>
+  </si>
+  <si>
+    <t>[1]={title = "游园时间", [1] = "画展：14：00" ,[2] = "花艺室：16：00",[3] = "音乐会：18：00", [4] = "剧场：19：00",[5] = "舞会：20：00"},
+[2]={title = "游园条件", [1] = "游园开始前可派遣情人参加", [2] = "称谓达到甜心或者以上的情人可参加游园"},
+[3]={title = "比拼规则", [1] = "游园开始后将报名的情人随机分配各组，每组9人", [2] = "比拼分为四回合，根据礼仪值、才艺值和魅力值获得分数，交际值最高的情人可以掠夺其他情人的分数"},
+[4]={title = "称谓加成", [1] = "每日初始位阶点由已有情人的称谓决定（第一夫人+9点、女主人+8点、妻子+7点、爱人+6点、灵魂伴侣+5点、伴侣+4点、知音+3点、情妇+2点、甜心+1点）", [2] = "位阶点可用于派遣情人游园时，临时增加情人对应的属性值", [3] = "每点位阶点可增加5%的临时属性", [4] = "每项属性最多分配10点位阶点", [5] = "每日可消耗钻石额外购买位阶点", [6] = "按照前四回合累计得分排名", [7] = "得分相同时，按情人四项属性总和排名", [8] = "若四项属性总和相同，按情人亲密经验排名"}</t>
   </si>
   <si>
     <t>金钱//沙龙积分</t>
@@ -1202,7 +1213,7 @@
     <t>王牌特工</t>
   </si>
   <si>
-    <t xml:space="preserve">[1]={title = "活动时间", [1] = "每周三、周五12：00-20：00" },
+    <t xml:space="preserve">[1]={title = "活动时间", [1] = "每周一、周五12：00-20：00" },
 [2]={title = "奖励说明", [1] = "每次对抗可以获得50个特工徽章，有30%概率触发大暴击、20%概率触发幸运暴击，使奖励翻倍", [2] = "对抗时，根据伤害给予黑道荣誉，可以根据荣誉领取金钱、基因药剂、极品精炼配件等大量黑道特工奖励",[3] = "按照黑道荣耀进行累计计算伤害排行和最大伤害排行，活动结束时，根据排行发放海量特工徽章、基因药剂和极品精炼配件", [4] = "服务器内的王牌特工被消灭后，会等级提升1级，并重新入侵，全服玩家可以根据王牌特工等级领取消灭奖励", [5] = "王朝荣誉为王朝内所有成员的荣耀总和，王朝荣誉前3的王朝，所有成员都可以领取丰厚的王朝奖励", [6] = "每个王牌特工进行对抗时，会有一名进行对抗的玩家获得幸运奖励，可以获得钻石奖励（王牌特工等级越高，奖励越多）", [7] = "消灭王牌特工的玩家可以获得基因药剂、极品精炼配件或火种（王牌特工等级越高，奖励越多）"}, 
 [3]={title = "王牌特工规则", [1] = "每次开启获得时，王牌特工的等级都从1级开始、每击杀一次，王牌特工的等级都提升1级。", [2] = "每个王牌特工的幸运一击奖励和消灭奖励类型不同，王牌特工等级越高，奖励数量越越多",[3] = "每次对抗王牌特工，消耗1次对抗次数，对抗次数每隔1小时恢复一次，也可以花费钻石购买对抗次数。", [4] = "王牌特工具有很高的威慑力，所有头目在战斗中，造成的伤害削减100倍。", [5] = "王牌特工等级会在下次开启时较上次获得结束时衰减120级"},
 </t>
@@ -1451,35 +1462,18 @@
   <si>
     <t>RankMainUI</t>
   </si>
-  <si>
-    <t>育儿所</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>酒吧</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]={title = "游园时间", [1] = "画展：14：00" ,[2] = "花艺室：16：00",[3] = "音乐会：18：00", [4] = "剧场：19：00",[5] = "舞会：20：00"},
-[2]={title = "游园条件", [1] = "游园开始前可派遣情人参加", [2] = "称谓达到甜心或者以上的情人可参加游园"},
-[3]={title = "比拼规则", [1] = "游园开始后将报名的情人随机分配各组，每组9人", [2] = "比拼分为四回合，根据礼仪值、才艺值和魅力值获得分数，交际值最高的情人可以掠夺其他情人的分数"},
-[4]={title = "称谓加成", [1] = "每日初始位阶点由已有情人的称谓决定（第一夫人+9点、女主人+8点、妻子+7点、爱人+6点、灵魂伴侣+5点、伴侣+4点、知音+3点、情妇+2点、甜心+1点）", [2] = "位阶点可用于派遣情人游园时，临时增加情人对应的属性值", [3] = "每点位阶点可增加5%的临时属性", [4] = "每项属性最多分配10点位阶点", [5] = "每日可消耗钻石额外购买位阶点", [6] = "按照前四回合累计得分排名", [7] = "得分相同时，按情人四项属性总和排名", [8] = "若四项属性总和相同，按情人亲密经验排名"}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1]={title = "头目碎片分解", [1] = "分解头目碎片返还头目货币以及金钱", [2] = "分解头目碎片返还头目货币以及金钱"},
-[2]={title = "装备分解", [1] = "所有装备都可以分解，根据装备品质返还地下货币，红色装备除返还地下货币外，同时返还部分红色装备精华", [2] = "返还装备升级过程中消耗的所有金钱", [3] = "返还装备精炼过程中消耗的所有装备精炼石"},
-[3]={title = "头目重生", [1] = "头目突破过程中消耗的金钱不返还", [2] = "返还头目升级过程中消耗的所有金钱", [3] = "返还头目升星过程中消耗的所有同名头目碎片", [4] = "返还天命升级过程中消耗的所有基因药剂", [5] = "返还培养过程中消耗的所有道具"},
-[4]={title = "装备重生",  [1] = "返还装备强化过程中消耗的所有金钱", [2] = "返还装备精炼过程中消耗的所有精炼石", [3] = "返还装备升星过程中消耗的所有金钱和同名装备碎片"},
-[5]={title = "宝物重生", [1] = "重生后，初始宝物得到保留，同时返还宝物精炼过程中消耗的同名宝物", [2] = "返还宝物强化过程中消耗的所有金钱", [3] = "返还精炼过程中消耗的所有宝物精炼石和金钱"}</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,7 +1482,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1503,6 +1519,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1515,7 +1532,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1526,23 +1596,85 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1554,36 +1686,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1616,13 +1737,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,25 +1755,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39994506668294322"/>
+        <fgColor theme="4" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7A5C5"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1665,6 +1780,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEF8D8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD7A5C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1694,7 +1815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1706,7 +1839,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +2024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1774,6 +2081,78 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color auto="1"/>
       </left>
@@ -1788,34 +2167,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="53" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" applyFill="0">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="49" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" applyFill="0">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1830,119 +2382,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1950,28 +2507,56 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1979,91 +2564,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="59">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通数值" xfId="1"/>
+    <cellStyle name="常规 6" xfId="2"/>
+    <cellStyle name="常规 5" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="1表头" xfId="6"/>
-    <cellStyle name="20% - 着色 2 2" xfId="3"/>
-    <cellStyle name="2填表文本" xfId="5"/>
-    <cellStyle name="表头" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="7"/>
-    <cellStyle name="常规 3" xfId="10"/>
-    <cellStyle name="常规 4" xfId="8"/>
-    <cellStyle name="常规 5" xfId="9"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="普通数值" xfId="4"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="7" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="8" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="9" builtinId="41"/>
+    <cellStyle name="输入" xfId="10" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="11" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12" builtinId="38"/>
+    <cellStyle name="货币" xfId="13" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="14" builtinId="37"/>
+    <cellStyle name="百分比" xfId="15" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="18" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="2填表文本" xfId="20"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="计算" xfId="22" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="23" builtinId="29"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="25" builtinId="46"/>
+    <cellStyle name="好" xfId="26" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="27" builtinId="30"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="差" xfId="29" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
+    <cellStyle name="输出" xfId="31" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="32" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="33" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="34" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="35" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="36" builtinId="7"/>
+    <cellStyle name="20% - 着色 2 2" xfId="37"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="38" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="39" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9"/>
+    <cellStyle name="标题" xfId="41" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="43" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="44" builtinId="40"/>
+    <cellStyle name="注释" xfId="45" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="47" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="50" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="51" builtinId="17"/>
+    <cellStyle name="表头" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="54" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="56" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="57"/>
+    <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFEF8D8D"/>
-      <color rgb="FFBCDBDE"/>
+      <color rgb="00EF8D8D"/>
+      <color rgb="00BCDBDE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2112,7 +2708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2147,7 +2743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2350,1226 +2946,1226 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.44140625" style="84" customWidth="1"/>
-    <col min="6" max="6" width="39.33203125" style="84" customWidth="1"/>
-    <col min="7" max="7" width="46.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.2211538461538" customWidth="1"/>
+    <col min="2" max="2" width="32.5576923076923" customWidth="1"/>
+    <col min="3" max="3" width="18.3365384615385" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.1057692307692" style="7" customWidth="1"/>
+    <col min="5" max="5" width="46.4423076923077" style="8" customWidth="1"/>
+    <col min="6" max="6" width="39.3365384615385" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.7788461538462" customWidth="1"/>
+    <col min="8" max="8" width="17.7788461538462" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="92" customFormat="1" ht="43.2">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="91" t="s">
+    <row r="1" s="1" customFormat="1" ht="51" spans="1:7">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="89"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" ht="17" spans="1:7">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="79" t="s">
+      <c r="H4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="77"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="77"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
-      <c r="A7" s="15" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" ht="18" spans="1:7">
+      <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="22">
         <v>1</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="65"/>
+      <c r="G7" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1">
-      <c r="A8" s="19" t="s">
+    <row r="8" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="A8" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="83" t="s">
+      <c r="D8" s="22"/>
+      <c r="E8" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1">
-      <c r="A9" s="19" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="A9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="22">
         <v>1</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1">
-      <c r="A10" s="20" t="s">
+    <row r="10" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="A10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="22">
         <v>1</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="16" t="s">
+      <c r="F10" s="66"/>
+      <c r="G10" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="19" t="s">
+    <row r="11" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="A11" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="22">
         <v>1</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1">
-      <c r="A12" s="19" t="s">
+    <row r="12" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="A12" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="22">
         <v>1</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="16" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1">
-      <c r="A13" s="19" t="s">
+    <row r="13" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="A13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="22">
         <v>1</v>
       </c>
-      <c r="E13" s="83" t="s">
+      <c r="E13" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="83" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="21">
         <v>1</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="21">
         <v>1</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="21" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="83" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="21"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="27">
         <v>1</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="E18" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="21" t="s">
+      <c r="F18" s="25"/>
+      <c r="G18" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="24" t="s">
+      <c r="H18" s="67"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="27">
         <v>1</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="24" t="s">
+      <c r="F19" s="68"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="83" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="24" t="s">
+      <c r="F20" s="68"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="27">
         <v>1</v>
       </c>
-      <c r="E21" s="83" t="s">
+      <c r="E21" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="26" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="22">
         <v>1</v>
       </c>
-      <c r="E22" s="83" t="s">
+      <c r="E22" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="26" t="s">
+      <c r="F22" s="68"/>
+      <c r="G22" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="26" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="83" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="26"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="26" t="s">
+      <c r="F23" s="68"/>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="22">
         <v>1</v>
       </c>
-      <c r="E24" s="83" t="s">
+      <c r="E24" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="26" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
-      <c r="A25" s="15" t="s">
+    <row r="25" ht="18" spans="1:7">
+      <c r="A25" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="22">
         <v>1</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="16" t="s">
+      <c r="F25" s="65"/>
+      <c r="G25" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
-      <c r="A26" s="15" t="s">
+    <row r="26" ht="18" spans="1:7">
+      <c r="A26" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="22">
         <v>1</v>
       </c>
-      <c r="E26" s="83" t="s">
+      <c r="E26" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="85"/>
-      <c r="G26" s="16" t="s">
+      <c r="F26" s="65"/>
+      <c r="G26" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
-      <c r="A27" s="15" t="s">
+    <row r="27" ht="18" spans="1:7">
+      <c r="A27" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="22">
         <v>1</v>
       </c>
-      <c r="E27" s="83" t="s">
+      <c r="E27" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="85"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="31.2">
-      <c r="A28" s="15" t="s">
+      <c r="F27" s="65"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" ht="36" spans="1:7">
+      <c r="A28" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="22">
         <v>1</v>
       </c>
-      <c r="E28" s="83" t="s">
+      <c r="E28" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="65"/>
+      <c r="G28" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
-      <c r="A29" s="15" t="s">
+    <row r="29" ht="18" spans="1:7">
+      <c r="A29" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="22">
         <v>1</v>
       </c>
-      <c r="E29" s="83" t="s">
+      <c r="E29" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="65"/>
+      <c r="G29" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
-      <c r="A30" s="15" t="s">
+    <row r="30" ht="18" spans="1:7">
+      <c r="A30" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="22">
         <v>1</v>
       </c>
-      <c r="E30" s="83" t="s">
+      <c r="E30" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.6">
-      <c r="A31" s="15" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" ht="18" spans="1:7">
+      <c r="A31" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="83" t="s">
+      <c r="D31" s="22"/>
+      <c r="E31" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="85"/>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.6">
-      <c r="A32" s="15" t="s">
+      <c r="F31" s="65"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" ht="18" spans="1:7">
+      <c r="A32" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="83" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="85"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.6">
-      <c r="A33" s="28" t="s">
+      <c r="F32" s="65"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" ht="18" spans="1:7">
+      <c r="A33" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="83" t="s">
+      <c r="D33" s="34"/>
+      <c r="E33" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="29" t="s">
+      <c r="F33" s="65"/>
+      <c r="G33" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.6">
-      <c r="A34" s="28" t="s">
+    <row r="34" ht="18" spans="1:7">
+      <c r="A34" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="34">
         <v>1</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E34" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="85"/>
-      <c r="G34" s="29" t="s">
+      <c r="F34" s="65"/>
+      <c r="G34" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="31" t="s">
+    <row r="35" ht="17" spans="1:7">
+      <c r="A35" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="37">
         <v>1</v>
       </c>
-      <c r="E35" s="83" t="s">
+      <c r="E35" s="64" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="32" t="s">
+      <c r="F35" s="68"/>
+      <c r="G35" s="36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="31" t="s">
+    <row r="36" ht="17" spans="1:9">
+      <c r="A36" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="37">
         <v>1</v>
       </c>
-      <c r="E36" s="83" t="s">
+      <c r="E36" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="32" t="s">
+      <c r="F36" s="68"/>
+      <c r="G36" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="31" t="s">
+      <c r="H36" s="69"/>
+      <c r="I36" s="36"/>
+    </row>
+    <row r="37" ht="17" spans="1:9">
+      <c r="A37" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="37">
         <v>1</v>
       </c>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="64" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="87"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" s="2" customFormat="1">
-      <c r="A38" s="2" t="s">
+      <c r="F37" s="68"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="36"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="A38" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="39">
         <v>1</v>
       </c>
-      <c r="E38" s="83" t="s">
+      <c r="E38" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="87"/>
-      <c r="G38" s="32" t="s">
+      <c r="F38" s="68"/>
+      <c r="G38" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="37"/>
-    </row>
-    <row r="39" spans="1:9" s="2" customFormat="1">
-      <c r="A39" s="2" t="s">
+      <c r="H38" s="70"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="A39" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="39">
         <v>1</v>
       </c>
-      <c r="E39" s="83" t="s">
+      <c r="E39" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="87"/>
-      <c r="G39" s="32" t="s">
+      <c r="F39" s="68"/>
+      <c r="G39" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1">
-      <c r="A40" s="2" t="s">
+      <c r="H39" s="70"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="A40" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="40">
         <v>1</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="64" t="s">
         <v>161</v>
       </c>
-      <c r="F40" s="87"/>
-      <c r="G40" s="32" t="s">
+      <c r="F40" s="68"/>
+      <c r="G40" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="37"/>
-    </row>
-    <row r="41" spans="1:9" s="3" customFormat="1">
-      <c r="A41" s="3" t="s">
+      <c r="H40" s="70"/>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="17" spans="1:8">
+      <c r="A41" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="41">
         <v>1</v>
       </c>
-      <c r="E41" s="83" t="s">
+      <c r="E41" s="64" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="87"/>
-      <c r="H41" s="40"/>
-    </row>
-    <row r="42" spans="1:9" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
+      <c r="F41" s="68"/>
+      <c r="H41" s="71"/>
+    </row>
+    <row r="42" s="4" customFormat="1" ht="17" spans="1:8">
+      <c r="A42" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="41">
         <v>1</v>
       </c>
-      <c r="E42" s="83" t="s">
+      <c r="E42" s="64" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="87"/>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="68"/>
+      <c r="G42" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1">
-      <c r="A43" s="4" t="s">
+      <c r="H42" s="71"/>
+    </row>
+    <row r="43" s="5" customFormat="1" ht="17" spans="1:8">
+      <c r="A43" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="D43" s="41">
+      <c r="C43" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="43">
         <v>1</v>
       </c>
-      <c r="E43" s="83" t="s">
+      <c r="E43" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="68"/>
+      <c r="G43" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="72"/>
+    </row>
+    <row r="44" s="5" customFormat="1" ht="17" spans="1:8">
+      <c r="A44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="F43" s="87"/>
-      <c r="G43" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" s="42"/>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1">
-      <c r="A44" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C44" s="81" t="s">
-        <v>456</v>
-      </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="87"/>
-      <c r="H44" s="42"/>
-    </row>
-    <row r="45" spans="1:9" s="2" customFormat="1">
-      <c r="A45" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="D44" s="43"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="68"/>
+      <c r="H44" s="72"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="A45" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="B45" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D45" s="38">
+      <c r="C45" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" s="40">
         <v>2</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="87" t="s">
-        <v>180</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E45" s="64"/>
+      <c r="F45" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="37" t="b">
+      <c r="H45" s="70" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="44" t="s">
+    <row r="46" ht="17" spans="1:7">
+      <c r="A46" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="B46" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="D46" s="45">
+      <c r="C46" s="44" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="46">
         <v>2</v>
       </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="87" t="s">
-        <v>459</v>
-      </c>
-      <c r="G46" s="44"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="46" t="s">
+      <c r="E46" s="64"/>
+      <c r="F46" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="G46" s="45"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="83" t="s">
+      <c r="B47" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="46"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="46" t="s">
+      <c r="C47" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="D47" s="47"/>
+      <c r="E47" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="F47" s="68"/>
+      <c r="G47" s="47"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="83" t="s">
+      <c r="B48" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="46"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="47" t="s">
+      <c r="C48" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="D48" s="47"/>
+      <c r="E48" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="F48" s="68"/>
+      <c r="G48" s="47"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D49" s="48">
+      <c r="B49" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="49">
         <v>1</v>
       </c>
-      <c r="E49" s="83" t="s">
-        <v>195</v>
-      </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="47" t="s">
+      <c r="E49" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" s="68"/>
+      <c r="G49" s="48" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50" s="47" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="27" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D50" s="48">
+      <c r="B50" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="D50" s="49">
         <v>1</v>
       </c>
-      <c r="E50" s="83" t="s">
-        <v>199</v>
-      </c>
-      <c r="F50" s="87"/>
-      <c r="G50" s="47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="47" t="s">
+      <c r="E50" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="F50" s="68"/>
+      <c r="G50" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="83" t="s">
-        <v>201</v>
-      </c>
-      <c r="F51" s="87"/>
-      <c r="G51" s="47"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D51" s="49"/>
+      <c r="E51" s="64" t="s">
+        <v>203</v>
+      </c>
+      <c r="F51" s="68"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C52" s="17" t="s">
+      <c r="A52" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="83" t="s">
+      <c r="B52" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="F52" s="87"/>
-      <c r="G52" s="26" t="s">
+      <c r="C52" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="D52" s="22"/>
+      <c r="E52" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="F52" s="68"/>
+      <c r="G52" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>212</v>
       </c>
       <c r="D53" s="51"/>
-      <c r="E53" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" s="87"/>
+      <c r="E53" s="64" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="68"/>
       <c r="G53" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H53" s="23" t="b">
+      <c r="H53" s="67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:8">
       <c r="A54" s="50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="17"/>
+        <v>215</v>
+      </c>
+      <c r="C54" s="21"/>
       <c r="D54" s="51"/>
-      <c r="E54" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="F54" s="87"/>
+      <c r="E54" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="F54" s="68"/>
       <c r="G54" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="23" t="b">
+      <c r="H54" s="67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:8">
       <c r="A55" s="50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>219</v>
       </c>
       <c r="D55" s="51"/>
-      <c r="E55" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="F55" s="87"/>
+      <c r="E55" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="68"/>
       <c r="G55" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H55" s="23" t="b">
+      <c r="H55" s="67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:8">
       <c r="A56" s="50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="17"/>
+        <v>222</v>
+      </c>
+      <c r="C56" s="21"/>
       <c r="D56" s="51"/>
-      <c r="E56" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="F56" s="87"/>
+      <c r="E56" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="F56" s="68"/>
       <c r="G56" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="23" t="b">
+      <c r="H56" s="67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:8">
       <c r="A57" s="50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>226</v>
       </c>
       <c r="D57" s="51"/>
-      <c r="E57" s="83" t="s">
-        <v>225</v>
-      </c>
-      <c r="F57" s="87"/>
+      <c r="E57" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" s="68"/>
       <c r="G57" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="23" t="b">
+      <c r="H57" s="67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:7">
       <c r="A58" s="50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C58" s="17"/>
+        <v>229</v>
+      </c>
+      <c r="C58" s="21"/>
       <c r="D58" s="51"/>
-      <c r="E58" s="83" t="s">
-        <v>228</v>
-      </c>
-      <c r="F58" s="87"/>
+      <c r="E58" s="64" t="s">
+        <v>230</v>
+      </c>
+      <c r="F58" s="68"/>
       <c r="G58" s="50"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:7">
       <c r="A59" s="52" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D59" s="54"/>
-      <c r="E59" s="83" t="s">
-        <v>232</v>
-      </c>
-      <c r="F59" s="88"/>
+      <c r="E59" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="F59" s="74"/>
       <c r="G59" s="52"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:8">
       <c r="A60" s="55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>234</v>
-      </c>
-      <c r="C60" s="27" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="D60" s="51">
         <v>1</v>
       </c>
-      <c r="E60" s="83" t="s">
-        <v>236</v>
-      </c>
-      <c r="F60" s="87"/>
+      <c r="E60" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="68"/>
       <c r="G60" s="50" t="s">
         <v>103</v>
       </c>
@@ -3579,1241 +4175,1241 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="56" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B61" s="56" t="s">
-        <v>238</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>241</v>
       </c>
       <c r="D61" s="57"/>
-      <c r="E61" s="83" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="B62" s="60" t="s">
+      <c r="E61" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="F61" s="68"/>
+      <c r="G61" s="75"/>
+      <c r="H61" s="76"/>
+      <c r="I61" s="76"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="83" t="s">
+      <c r="B62" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="60" t="s">
+      <c r="C62" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D62" s="59"/>
+      <c r="E62" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="68"/>
+      <c r="G62" s="58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="61" t="s">
-        <v>245</v>
-      </c>
-      <c r="B63" s="61" t="s">
-        <v>246</v>
-      </c>
-      <c r="C63" s="17" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="83">
+      <c r="B63" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="61"/>
+      <c r="E63" s="64">
         <v>1226354</v>
       </c>
-      <c r="F63" s="87"/>
+      <c r="F63" s="68"/>
       <c r="G63" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H63" s="23" t="b">
+      <c r="H63" s="67" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="B64" s="61" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" s="17" t="s">
+    <row r="64" spans="1:8">
+      <c r="A64" s="60" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="62"/>
-      <c r="E64" s="83" t="s">
+      <c r="B64" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="F64" s="87"/>
+      <c r="C64" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="61"/>
+      <c r="E64" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="F64" s="68"/>
       <c r="G64" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="H64" s="23" t="b">
+      <c r="H64" s="67" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="61" t="s">
-        <v>252</v>
-      </c>
-      <c r="B65" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="83" t="s">
+      <c r="A65" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="61"/>
+      <c r="B65" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="F65" s="68"/>
+      <c r="G65" s="60"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="61" t="s">
-        <v>255</v>
-      </c>
-      <c r="B66" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="C66" s="17" t="s">
+      <c r="A66" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="D66" s="62"/>
-      <c r="E66" s="83" t="s">
+      <c r="B66" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="F66" s="87"/>
-      <c r="G66" s="61"/>
+      <c r="C66" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="61"/>
+      <c r="E66" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="F66" s="68"/>
+      <c r="G66" s="60"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="B67" s="64" t="s">
-        <v>260</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="D67" s="65">
+      <c r="A67" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B67" s="79" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D67" s="80">
         <v>1</v>
       </c>
-      <c r="E67" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="F67" s="87"/>
-      <c r="G67" s="64" t="s">
-        <v>262</v>
+      <c r="E67" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F67" s="68"/>
+      <c r="G67" s="79" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="64" t="s">
-        <v>263</v>
-      </c>
-      <c r="B68" s="64" t="s">
+      <c r="A68" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="80">
+        <v>1</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="F68" s="68"/>
+      <c r="G68" s="79"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="79" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="80">
+        <v>1</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>270</v>
+      </c>
+      <c r="F69" s="68"/>
+      <c r="G69" s="79"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="79" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" s="79" t="s">
+        <v>272</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D70" s="80"/>
+      <c r="E70" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="F70" s="68"/>
+      <c r="G70" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="D68" s="65">
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="79" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="79" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D71" s="80">
+        <v>2</v>
+      </c>
+      <c r="E71" s="64"/>
+      <c r="F71" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="G71" s="79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="79" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="D72" s="80"/>
+      <c r="E72" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="F72" s="68"/>
+      <c r="G72" s="79" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="79" t="s">
+        <v>283</v>
+      </c>
+      <c r="B73" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="80"/>
+      <c r="E73" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="F73" s="68"/>
+      <c r="G73" s="79"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74" s="80">
         <v>1</v>
       </c>
-      <c r="E68" s="83" t="s">
-        <v>265</v>
-      </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="64"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="B69" s="64" t="s">
-        <v>267</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D69" s="65">
-        <v>1</v>
-      </c>
-      <c r="E69" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="64"/>
-    </row>
-    <row r="70" spans="1:7" ht="15">
-      <c r="A70" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="B70" s="64" t="s">
-        <v>270</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="D70" s="65"/>
-      <c r="E70" s="83" t="s">
-        <v>272</v>
-      </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="66" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="B71" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="D71" s="65">
+      <c r="E74" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="68"/>
+      <c r="G74" s="79"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75" s="79" t="s">
+        <v>292</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="80"/>
+      <c r="E75" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="68"/>
+      <c r="G75" s="79"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="79" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" s="79" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="80"/>
+      <c r="E76" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="F76" s="68"/>
+      <c r="G76" s="79"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="79" t="s">
+        <v>299</v>
+      </c>
+      <c r="B77" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" s="80"/>
+      <c r="E77" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="F77" s="68"/>
+      <c r="G77" s="79"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B78" s="79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" s="80"/>
+      <c r="E78" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="F78" s="68"/>
+      <c r="G78" s="79"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="79" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="79" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="80"/>
+      <c r="E79" s="64" t="s">
+        <v>306</v>
+      </c>
+      <c r="F79" s="68"/>
+      <c r="G79" s="79"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="B80" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D80" s="82">
         <v>2</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="87" t="s">
-        <v>276</v>
-      </c>
-      <c r="G71" s="64" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="64" t="s">
-        <v>277</v>
-      </c>
-      <c r="B72" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="D72" s="65"/>
-      <c r="E72" s="83" t="s">
-        <v>280</v>
-      </c>
-      <c r="F72" s="87"/>
-      <c r="G72" s="64" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="B73" s="64" t="s">
-        <v>282</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="D73" s="65"/>
-      <c r="E73" s="83" t="s">
-        <v>284</v>
-      </c>
-      <c r="F73" s="87"/>
-      <c r="G73" s="64"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="64" t="s">
-        <v>285</v>
-      </c>
-      <c r="B74" s="64" t="s">
-        <v>286</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>287</v>
-      </c>
-      <c r="D74" s="65">
-        <v>1</v>
-      </c>
-      <c r="E74" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="F74" s="87"/>
-      <c r="G74" s="64"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="B75" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D75" s="65"/>
-      <c r="E75" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="F75" s="87"/>
-      <c r="G75" s="64"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="B76" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="F76" s="87"/>
-      <c r="G76" s="64"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="64" t="s">
-        <v>297</v>
-      </c>
-      <c r="B77" s="64" t="s">
-        <v>298</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D77" s="65"/>
-      <c r="E77" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="F77" s="87"/>
-      <c r="G77" s="64"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="64" t="s">
-        <v>299</v>
-      </c>
-      <c r="B78" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D78" s="65"/>
-      <c r="E78" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="F78" s="87"/>
-      <c r="G78" s="64"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="64" t="s">
-        <v>301</v>
-      </c>
-      <c r="B79" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D79" s="65"/>
-      <c r="E79" s="83" t="s">
-        <v>304</v>
-      </c>
-      <c r="F79" s="87"/>
-      <c r="G79" s="64"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="67" t="s">
+      <c r="E80" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F80" s="68" t="s">
+        <v>311</v>
+      </c>
+      <c r="G80" s="81" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="81" t="s">
+        <v>313</v>
+      </c>
+      <c r="B81" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="82"/>
+      <c r="E81" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="F81" s="68"/>
+      <c r="G81" s="81" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="B80" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D80" s="68">
-        <v>2</v>
-      </c>
-      <c r="E80" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="F80" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="G80" s="67" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="B81" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="C81" s="17"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="F81" s="87"/>
-      <c r="G81" s="67" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="B82" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D82" s="68"/>
-      <c r="E82" s="83" t="s">
-        <v>313</v>
-      </c>
-      <c r="F82" s="87"/>
-      <c r="G82" s="67"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="B83" s="61" t="s">
+      <c r="B82" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C82" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" s="82"/>
+      <c r="E82" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="83" t="s">
+      <c r="F82" s="68"/>
+      <c r="G82" s="81"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="60" t="s">
         <v>317</v>
       </c>
-      <c r="F83" s="87"/>
-      <c r="G83" s="61" t="s">
+      <c r="B83" s="60" t="s">
+        <v>318</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83" s="61"/>
+      <c r="E83" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="68"/>
+      <c r="G83" s="60" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="67" t="s">
-        <v>318</v>
-      </c>
-      <c r="B84" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="D84" s="69"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="7"/>
+      <c r="A84" s="81" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D84" s="83"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="84"/>
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" s="49"/>
+      <c r="I84" s="73"/>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="B85" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="D85" s="69"/>
-      <c r="E85" s="83"/>
-      <c r="F85" s="87"/>
-      <c r="G85" s="7"/>
-      <c r="I85" s="49"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="B86" s="67" t="s">
+      <c r="A85" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="B85" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="D86" s="69">
+      <c r="C85" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D85" s="83"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="84"/>
+      <c r="I85" s="73"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="81" t="s">
+        <v>325</v>
+      </c>
+      <c r="B86" s="81" t="s">
+        <v>326</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D86" s="83">
         <v>1</v>
       </c>
-      <c r="E86" s="83" t="s">
-        <v>325</v>
-      </c>
-      <c r="F86" s="87"/>
-      <c r="G86" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="B87" s="67" t="s">
+      <c r="E86" s="64" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="F86" s="68"/>
+      <c r="G86" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="D87" s="69"/>
-      <c r="E87" s="83"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="61"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="67" t="s">
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="81" t="s">
         <v>330</v>
       </c>
-      <c r="B88" s="67" t="s">
+      <c r="B87" s="81" t="s">
         <v>331</v>
       </c>
-      <c r="C88" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="D88" s="69"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="61"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="7"/>
-      <c r="B89" s="61" t="s">
+      <c r="C87" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="D87" s="83"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="60"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="D89" s="62">
+      <c r="B88" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D88" s="83"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="60"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="84"/>
+      <c r="B89" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D89" s="61">
         <v>1</v>
       </c>
-      <c r="E89" s="83" t="s">
-        <v>334</v>
-      </c>
-      <c r="F89" s="87"/>
-      <c r="G89" s="61"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="70" t="s">
-        <v>335</v>
-      </c>
-      <c r="B90" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="D90" s="71">
+      <c r="E89" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="F89" s="68"/>
+      <c r="G89" s="60"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="B90" s="85" t="s">
+        <v>339</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90" s="86">
         <v>1</v>
       </c>
-      <c r="E90" s="83" t="s">
-        <v>337</v>
-      </c>
-      <c r="F90" s="87"/>
-      <c r="G90" s="70"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="70" t="s">
-        <v>338</v>
-      </c>
-      <c r="B91" s="70" t="s">
-        <v>339</v>
-      </c>
-      <c r="C91" s="17" t="s">
+      <c r="E90" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="D91" s="71"/>
-      <c r="E91" s="83" t="s">
+      <c r="F90" s="68"/>
+      <c r="G90" s="85"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="85" t="s">
         <v>341</v>
       </c>
-      <c r="F91" s="87"/>
-      <c r="G91" s="70"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="70" t="s">
+      <c r="B91" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="B92" s="70" t="s">
+      <c r="C91" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="D91" s="86"/>
+      <c r="E91" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="D92" s="71"/>
-      <c r="E92" s="83" t="s">
-        <v>341</v>
-      </c>
-      <c r="F92" s="87"/>
-      <c r="G92" s="70"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="70" t="s">
+      <c r="F91" s="68"/>
+      <c r="G91" s="85"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="85" t="s">
         <v>345</v>
       </c>
-      <c r="B93" s="70" t="s">
+      <c r="B92" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C92" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="D93" s="71">
+      <c r="D92" s="86"/>
+      <c r="E92" s="64" t="s">
+        <v>344</v>
+      </c>
+      <c r="F92" s="68"/>
+      <c r="G92" s="85"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="B93" s="85" t="s">
+        <v>349</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D93" s="86">
         <v>1</v>
       </c>
-      <c r="E93" s="83" t="s">
-        <v>348</v>
-      </c>
-      <c r="F93" s="87"/>
-      <c r="G93" s="70" t="s">
+      <c r="E93" s="64" t="s">
+        <v>351</v>
+      </c>
+      <c r="F93" s="68"/>
+      <c r="G93" s="85" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="B94" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="C94" s="25" t="s">
-        <v>351</v>
-      </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="70"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="70" t="s">
+    <row r="94" spans="1:7">
+      <c r="A94" s="85" t="s">
         <v>352</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B94" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C94" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="69"/>
-      <c r="E95" s="83"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="7" t="s">
+      <c r="D94" s="85"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="85"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="85" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="70" t="s">
+      <c r="B95" s="85" t="s">
         <v>356</v>
       </c>
-      <c r="B96" s="70" t="s">
+      <c r="C95" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="D95" s="83"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="68"/>
+      <c r="G95" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="D96" s="69">
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="85" t="s">
+        <v>359</v>
+      </c>
+      <c r="B96" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="C96" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="D96" s="83">
         <v>1</v>
       </c>
-      <c r="E96" s="83" t="s">
-        <v>359</v>
-      </c>
-      <c r="F96" s="87"/>
-      <c r="G96" s="7"/>
+      <c r="E96" s="64" t="s">
+        <v>362</v>
+      </c>
+      <c r="F96" s="68"/>
+      <c r="G96" s="84"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="B97" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>360</v>
-      </c>
-      <c r="D97" s="69"/>
-      <c r="E97" s="83" t="s">
-        <v>360</v>
-      </c>
-      <c r="F97" s="87"/>
-      <c r="G97" s="70" t="s">
+      <c r="A97" s="85" t="s">
+        <v>363</v>
+      </c>
+      <c r="B97" s="85" t="s">
+        <v>364</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="D97" s="83"/>
+      <c r="E97" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="F97" s="68"/>
+      <c r="G97" s="85" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="B98" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="D98" s="69"/>
-      <c r="E98" s="83" t="s">
-        <v>362</v>
-      </c>
-      <c r="F98" s="87"/>
-      <c r="G98" s="70" t="s">
+      <c r="A98" s="85" t="s">
+        <v>365</v>
+      </c>
+      <c r="B98" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="D98" s="83"/>
+      <c r="E98" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="F98" s="68"/>
+      <c r="G98" s="85" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="70" t="s">
-        <v>365</v>
-      </c>
-      <c r="B99" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>367</v>
-      </c>
-      <c r="D99" s="69"/>
-      <c r="E99" s="83"/>
-      <c r="F99" s="87"/>
-      <c r="G99" s="7"/>
+      <c r="A99" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="B99" s="85" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D99" s="83"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="84"/>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="7"/>
-      <c r="B100" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D100" s="69"/>
-      <c r="E100" s="83"/>
-      <c r="F100" s="87"/>
-      <c r="G100" s="70" t="s">
+      <c r="A100" s="84"/>
+      <c r="B100" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D100" s="83"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="68"/>
+      <c r="G100" s="85" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="70" t="s">
-        <v>370</v>
-      </c>
-      <c r="B101" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="C101" s="17" t="s">
+      <c r="A101" s="85" t="s">
+        <v>373</v>
+      </c>
+      <c r="B101" s="85" t="s">
+        <v>374</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D101" s="83">
+        <v>2</v>
+      </c>
+      <c r="E101" s="64"/>
+      <c r="F101" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="G101" s="84"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="85" t="s">
+        <v>377</v>
+      </c>
+      <c r="B102" s="85" t="s">
+        <v>378</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="F102" s="68"/>
+      <c r="G102" s="84"/>
+    </row>
+    <row r="103" ht="409.5" spans="1:7">
+      <c r="A103" s="85" t="s">
+        <v>380</v>
+      </c>
+      <c r="B103" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D103" s="83">
+        <v>2</v>
+      </c>
+      <c r="E103" s="64"/>
+      <c r="F103" s="93" t="s">
+        <v>383</v>
+      </c>
+      <c r="G103" s="85"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="B104" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="D104" s="83"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="84"/>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="B105" s="85" t="s">
+        <v>388</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="D105" s="83"/>
+      <c r="E105" s="64"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="84"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="85" t="s">
+        <v>390</v>
+      </c>
+      <c r="B106" s="85" t="s">
+        <v>391</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D106" s="83"/>
+      <c r="E106" s="64"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="84"/>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="85" t="s">
+        <v>393</v>
+      </c>
+      <c r="B107" s="85" t="s">
+        <v>394</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="D107" s="83"/>
+      <c r="E107" s="64"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="84"/>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="85" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" s="85" t="s">
+        <v>397</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D108" s="83"/>
+      <c r="E108" s="64"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="84"/>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="85" t="s">
+        <v>399</v>
+      </c>
+      <c r="B109" s="85" t="s">
+        <v>400</v>
+      </c>
+      <c r="C109" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="D109" s="83"/>
+      <c r="E109" s="64"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="84"/>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="B110" s="85" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="D110" s="83"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="84"/>
+    </row>
+    <row r="111" ht="17" spans="1:7">
+      <c r="A111" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="B111" s="88" t="s">
+        <v>406</v>
+      </c>
+      <c r="C111" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="D111" s="83"/>
+      <c r="E111" s="64"/>
+      <c r="F111" s="68"/>
+      <c r="G111" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" ht="17" spans="1:7">
+      <c r="A112" s="84" t="s">
+        <v>408</v>
+      </c>
+      <c r="B112" s="88" t="s">
+        <v>409</v>
+      </c>
+      <c r="C112" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="D112" s="83"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="68"/>
+      <c r="G112" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" ht="17" spans="1:7">
+      <c r="A113" s="84" t="s">
+        <v>411</v>
+      </c>
+      <c r="B113" s="88" t="s">
+        <v>412</v>
+      </c>
+      <c r="C113" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" s="83"/>
+      <c r="E113" s="64"/>
+      <c r="F113" s="68"/>
+      <c r="G113" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" ht="17" spans="1:7">
+      <c r="A114" s="84" t="s">
+        <v>413</v>
+      </c>
+      <c r="B114" s="89" t="s">
+        <v>414</v>
+      </c>
+      <c r="C114" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="D114" s="83"/>
+      <c r="E114" s="64"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" ht="17" spans="1:7">
+      <c r="A115" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="B115" s="88" t="s">
+        <v>417</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="D115" s="83"/>
+      <c r="E115" s="64"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="116" ht="17" spans="1:7">
+      <c r="A116" s="84" t="s">
         <v>372</v>
       </c>
-      <c r="D101" s="69">
-        <v>2</v>
-      </c>
-      <c r="E101" s="83"/>
-      <c r="F101" s="87" t="s">
-        <v>373</v>
-      </c>
-      <c r="G101" s="7"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="70" t="s">
-        <v>374</v>
-      </c>
-      <c r="B102" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="C102" s="17"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="83" t="s">
-        <v>376</v>
-      </c>
-      <c r="F102" s="87"/>
-      <c r="G102" s="7"/>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="B103" s="70" t="s">
-        <v>378</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>379</v>
-      </c>
-      <c r="D103" s="69">
-        <v>2</v>
-      </c>
-      <c r="E103" s="83"/>
-      <c r="F103" s="87" t="s">
-        <v>380</v>
-      </c>
-      <c r="G103" s="70"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="B104" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="C104" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D104" s="69"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="87"/>
-      <c r="G104" s="7"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="70" t="s">
-        <v>384</v>
-      </c>
-      <c r="B105" s="70" t="s">
-        <v>385</v>
-      </c>
-      <c r="C105" s="17" t="s">
-        <v>386</v>
-      </c>
-      <c r="D105" s="69"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="7"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="70" t="s">
-        <v>387</v>
-      </c>
-      <c r="B106" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="D106" s="69"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="7"/>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" s="70" t="s">
-        <v>390</v>
-      </c>
-      <c r="B107" s="70" t="s">
-        <v>391</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D107" s="69"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="87"/>
-      <c r="G107" s="7"/>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" s="70" t="s">
-        <v>393</v>
-      </c>
-      <c r="B108" s="70" t="s">
-        <v>394</v>
-      </c>
-      <c r="C108" s="17" t="s">
-        <v>395</v>
-      </c>
-      <c r="D108" s="69"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="87"/>
-      <c r="G108" s="7"/>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" s="70" t="s">
-        <v>396</v>
-      </c>
-      <c r="B109" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="C109" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="D109" s="69"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="87"/>
-      <c r="G109" s="7"/>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" s="70" t="s">
-        <v>399</v>
-      </c>
-      <c r="B110" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="D110" s="69"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="87"/>
-      <c r="G110" s="7"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="B111" s="73" t="s">
-        <v>403</v>
-      </c>
-      <c r="C111" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="D111" s="69"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="87"/>
-      <c r="G111" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B112" s="73" t="s">
-        <v>406</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="D112" s="69"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="3" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B113" s="73" t="s">
-        <v>409</v>
-      </c>
-      <c r="C113" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D113" s="69"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="87"/>
-      <c r="G113" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C114" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="D114" s="69"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="87"/>
-      <c r="G114" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B115" s="73" t="s">
-        <v>414</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>413</v>
-      </c>
-      <c r="D115" s="69"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="87"/>
-      <c r="G115" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B116" s="73" t="s">
-        <v>415</v>
-      </c>
-      <c r="C116" s="17" t="s">
-        <v>369</v>
-      </c>
-      <c r="D116" s="69"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="87"/>
-      <c r="G116" s="3" t="s">
+      <c r="B116" s="88" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D116" s="83"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="68"/>
+      <c r="G116" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="B117" s="73" t="s">
-        <v>417</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="D117" s="69"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="87"/>
-      <c r="G117" s="3" t="s">
+    <row r="117" ht="17" spans="1:7">
+      <c r="A117" s="84" t="s">
+        <v>419</v>
+      </c>
+      <c r="B117" s="88" t="s">
+        <v>420</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D117" s="83"/>
+      <c r="E117" s="64"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B118" s="73" t="s">
-        <v>419</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="D118" s="69"/>
-      <c r="E118" s="83"/>
-      <c r="F118" s="87"/>
-      <c r="G118" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="7" t="s">
+    <row r="118" ht="17" spans="1:7">
+      <c r="A118" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B118" s="88" t="s">
         <v>422</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C118" s="21" t="s">
+        <v>421</v>
+      </c>
+      <c r="D118" s="83"/>
+      <c r="E118" s="64"/>
+      <c r="F118" s="68"/>
+      <c r="G118" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="D119" s="69"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="87"/>
-      <c r="G119" s="3" t="s">
+    </row>
+    <row r="119" ht="17" spans="1:7">
+      <c r="A119" s="84" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="7" t="s">
+      <c r="B119" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="C119" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="D119" s="83"/>
+      <c r="E119" s="64"/>
+      <c r="F119" s="68"/>
+      <c r="G119" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="D120" s="69"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="87"/>
-      <c r="G120" s="3" t="s">
+    </row>
+    <row r="120" ht="17" spans="1:7">
+      <c r="A120" s="84" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="7" t="s">
+      <c r="B120" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="C120" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="D121" s="69"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="87"/>
-      <c r="G121" s="3" t="s">
+      <c r="D120" s="83"/>
+      <c r="E120" s="64"/>
+      <c r="F120" s="68"/>
+      <c r="G120" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="7" t="s">
+    <row r="121" ht="17" spans="1:7">
+      <c r="A121" s="84" t="s">
         <v>432</v>
       </c>
-      <c r="B122" s="73" t="s">
+      <c r="B121" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="C122" s="17" t="s">
+      <c r="C121" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="D122" s="69"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="87"/>
-      <c r="G122" s="3" t="s">
+      <c r="D121" s="83"/>
+      <c r="E121" s="64"/>
+      <c r="F121" s="68"/>
+      <c r="G121" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
-      <c r="A123" s="7" t="s">
+    <row r="122" ht="17" spans="1:7">
+      <c r="A122" s="84" t="s">
         <v>435</v>
       </c>
-      <c r="B123" s="73" t="s">
+      <c r="B122" s="88" t="s">
         <v>436</v>
       </c>
-      <c r="C123" s="69" t="s">
+      <c r="C122" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="D123" s="69"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="87"/>
-      <c r="G123" s="3" t="s">
-        <v>262</v>
+      <c r="D122" s="83"/>
+      <c r="E122" s="64"/>
+      <c r="F122" s="68"/>
+      <c r="G122" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="123" ht="17" spans="1:7">
+      <c r="A123" s="84" t="s">
+        <v>438</v>
+      </c>
+      <c r="B123" s="88" t="s">
+        <v>439</v>
+      </c>
+      <c r="C123" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="D123" s="83"/>
+      <c r="E123" s="64"/>
+      <c r="F123" s="68"/>
+      <c r="G123" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="74" t="s">
-        <v>437</v>
-      </c>
-      <c r="B124" s="73" t="s">
-        <v>438</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="D124" s="69"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="87"/>
-      <c r="G124" s="3"/>
+      <c r="A124" s="90" t="s">
+        <v>440</v>
+      </c>
+      <c r="B124" s="88" t="s">
+        <v>441</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="D124" s="83"/>
+      <c r="E124" s="64"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B125" s="73" t="s">
-        <v>441</v>
-      </c>
-      <c r="C125" s="69" t="s">
-        <v>440</v>
-      </c>
-      <c r="D125" s="69"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="87"/>
-      <c r="G125" s="3"/>
+      <c r="A125" s="84" t="s">
+        <v>443</v>
+      </c>
+      <c r="B125" s="88" t="s">
+        <v>444</v>
+      </c>
+      <c r="C125" s="83" t="s">
+        <v>443</v>
+      </c>
+      <c r="D125" s="83"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="68"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="73" t="s">
-        <v>442</v>
-      </c>
-      <c r="B126" s="73" t="s">
-        <v>443</v>
-      </c>
-      <c r="C126" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="D126" s="69">
+      <c r="A126" s="88" t="s">
+        <v>445</v>
+      </c>
+      <c r="B126" s="88" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="91" t="s">
+        <v>445</v>
+      </c>
+      <c r="D126" s="83">
         <v>1</v>
       </c>
-      <c r="E126" s="83" t="s">
-        <v>444</v>
-      </c>
-      <c r="F126" s="87"/>
-      <c r="G126" s="3"/>
+      <c r="E126" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="F126" s="68"/>
+      <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>445</v>
-      </c>
-      <c r="B127" s="73" t="s">
-        <v>446</v>
-      </c>
-      <c r="C127" s="69" t="s">
-        <v>445</v>
-      </c>
-      <c r="D127" s="69"/>
-      <c r="E127" s="83"/>
-      <c r="F127" s="87"/>
-      <c r="G127" s="3"/>
+        <v>448</v>
+      </c>
+      <c r="B127" s="88" t="s">
+        <v>449</v>
+      </c>
+      <c r="C127" s="83" t="s">
+        <v>448</v>
+      </c>
+      <c r="D127" s="83"/>
+      <c r="E127" s="64"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="B128" s="73" t="s">
-        <v>448</v>
-      </c>
-      <c r="C128" s="69" t="s">
-        <v>447</v>
-      </c>
-      <c r="D128" s="69"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="3"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="73" t="s">
-        <v>449</v>
-      </c>
-      <c r="B129" s="73" t="s">
+      <c r="A128" s="84" t="s">
         <v>450</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="B128" s="88" t="s">
         <v>451</v>
       </c>
-      <c r="D129" s="69"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="87"/>
-      <c r="G129" s="3" t="s">
+      <c r="C128" s="83" t="s">
+        <v>450</v>
+      </c>
+      <c r="D128" s="83"/>
+      <c r="E128" s="64"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="4"/>
+    </row>
+    <row r="129" ht="17" spans="1:7">
+      <c r="A129" s="88" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="73" t="s">
+      <c r="B129" s="88" t="s">
         <v>453</v>
       </c>
-      <c r="B130" s="73" t="s">
+      <c r="C129" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="C130" s="69" t="s">
-        <v>453</v>
-      </c>
-      <c r="D130" s="69"/>
-      <c r="E130" s="83"/>
-      <c r="F130" s="87"/>
-      <c r="G130" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="B131" s="73" t="s">
+      <c r="D129" s="83"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="68"/>
+      <c r="G129" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C131" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="D131" s="69"/>
-      <c r="E131" s="83"/>
-      <c r="F131" s="87"/>
-      <c r="G131" s="3" t="s">
-        <v>452</v>
+    </row>
+    <row r="130" ht="17" spans="1:7">
+      <c r="A130" s="88" t="s">
+        <v>456</v>
+      </c>
+      <c r="B130" s="88" t="s">
+        <v>457</v>
+      </c>
+      <c r="C130" s="83" t="s">
+        <v>456</v>
+      </c>
+      <c r="D130" s="83"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131" ht="17" spans="1:7">
+      <c r="A131" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131" s="88" t="s">
+        <v>458</v>
+      </c>
+      <c r="C131" s="83" t="s">
+        <v>305</v>
+      </c>
+      <c r="D131" s="83"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="68"/>
+      <c r="G131" s="4" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/sharedata/exceldata/excel/all/U-UI内容表.xlsx
+++ b/sharedata/exceldata/excel/all/U-UI内容表.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="32700" windowHeight="15280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ui内容表" sheetId="2" r:id="rId1"/>
+    <sheet name="#Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="物品品质">#REF!</definedName>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="468">
   <si>
     <t>1小的帮助框
 2大的带标题的
@@ -1462,18 +1468,47 @@
   <si>
     <t>RankMainUI</t>
   </si>
+  <si>
+    <t>钻石//桃心//英雄邀请函//情人邀请函</t>
+  </si>
+  <si>
+    <t>招募桃心抽奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募英雄抽奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募情人抽奖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitmentResUI</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitmentHeroUI</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecruitmentLoveUI</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募概率</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]={title = "普通抽奖", [1] = "S级 0.5%", [2] = "A级 0.5%"},</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,20 +1531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -1519,7 +1540,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1532,16 +1552,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1552,129 +1577,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1682,29 +1587,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="54">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1737,13 +1626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
+        <fgColor theme="7" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,19 +1644,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor rgb="FFD7A5C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,12 +1675,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEF8D8D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD7A5C5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1815,19 +1704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,181 +1716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2024,7 +1727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2081,75 +1784,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2167,203 +1811,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="53" borderId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" applyFill="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyFill="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="49" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2401,6 +1875,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2410,6 +1887,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2425,13 +1908,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2440,66 +1927,76 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2507,13 +2004,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2522,41 +2022,15 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2569,7 +2043,7 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2579,87 +2053,59 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="11">
+    <cellStyle name="1表头" xfId="6"/>
+    <cellStyle name="20% - 着色 2 2" xfId="3"/>
+    <cellStyle name="2填表文本" xfId="5"/>
+    <cellStyle name="表头" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通数值" xfId="1"/>
-    <cellStyle name="常规 6" xfId="2"/>
-    <cellStyle name="常规 5" xfId="3"/>
-    <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="1表头" xfId="6"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="7" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="8" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="9" builtinId="41"/>
-    <cellStyle name="输入" xfId="10" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="11" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12" builtinId="38"/>
-    <cellStyle name="货币" xfId="13" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="14" builtinId="37"/>
-    <cellStyle name="百分比" xfId="15" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="18" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
-    <cellStyle name="2填表文本" xfId="20"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
-    <cellStyle name="计算" xfId="22" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="23" builtinId="29"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="25" builtinId="46"/>
-    <cellStyle name="好" xfId="26" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="27" builtinId="30"/>
-    <cellStyle name="汇总" xfId="28" builtinId="25"/>
-    <cellStyle name="差" xfId="29" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="30" builtinId="23"/>
-    <cellStyle name="输出" xfId="31" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="32" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="33" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="34" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="35" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="36" builtinId="7"/>
-    <cellStyle name="20% - 着色 2 2" xfId="37"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="38" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="39" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9"/>
-    <cellStyle name="标题" xfId="41" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="43" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="44" builtinId="40"/>
-    <cellStyle name="注释" xfId="45" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="47" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="50" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="51" builtinId="17"/>
-    <cellStyle name="表头" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="53" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="54" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="55" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="56" builtinId="31"/>
-    <cellStyle name="常规 3" xfId="57"/>
-    <cellStyle name="链接单元格" xfId="58" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="9"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="常规 4" xfId="8"/>
+    <cellStyle name="常规 5" xfId="7"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="普通数值" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="00EF8D8D"/>
-      <color rgb="00BCDBDE"/>
+      <color rgb="FFEF8D8D"/>
+      <color rgb="FFBCDBDE"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2708,7 +2154,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2743,7 +2189,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2946,32 +2392,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="42.2211538461538" customWidth="1"/>
-    <col min="2" max="2" width="32.5576923076923" customWidth="1"/>
-    <col min="3" max="3" width="18.3365384615385" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.1057692307692" style="7" customWidth="1"/>
-    <col min="5" max="5" width="46.4423076923077" style="8" customWidth="1"/>
-    <col min="6" max="6" width="39.3365384615385" style="8" customWidth="1"/>
-    <col min="7" max="7" width="46.7788461538462" customWidth="1"/>
-    <col min="8" max="8" width="17.7788461538462" customWidth="1"/>
+    <col min="1" max="1" width="42.21875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="46.44140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="46.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="51" spans="1:7">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.2">
       <c r="A1" s="9"/>
       <c r="B1" s="9"/>
       <c r="C1" s="10"/>
@@ -2984,7 +2430,7 @@
       </c>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" ht="17" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2993,1180 +2439,1180 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="14"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="77"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="77"/>
+      <c r="I5" s="76"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="78"/>
-    </row>
-    <row r="7" ht="18" spans="1:7">
-      <c r="A7" s="19" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="77"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6">
+      <c r="A7" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="22">
-        <v>1</v>
-      </c>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="25">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="17" spans="1:7">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:9" s="2" customFormat="1">
+      <c r="A8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="17" spans="1:7">
-      <c r="A9" s="23" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="A9" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="22">
-        <v>1</v>
-      </c>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="25">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="20" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="17" spans="1:7">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:9" s="2" customFormat="1">
+      <c r="A10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="64" t="s">
+      <c r="D10" s="25">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="20" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="17" spans="1:7">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="22">
-        <v>1</v>
-      </c>
-      <c r="E11" s="64" t="s">
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="20" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" ht="17" spans="1:7">
-      <c r="A12" s="23" t="s">
+    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="A12" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="22">
-        <v>1</v>
-      </c>
-      <c r="E12" s="64" t="s">
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="20" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" ht="17" spans="1:7">
-      <c r="A13" s="23" t="s">
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="22">
-        <v>1</v>
-      </c>
-      <c r="E13" s="64" t="s">
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="20" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="64" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="25" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="21">
-        <v>1</v>
-      </c>
-      <c r="E15" s="64" t="s">
+      <c r="D15" s="24">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="21">
-        <v>1</v>
-      </c>
-      <c r="E16" s="64" t="s">
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="64" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="27">
-        <v>1</v>
-      </c>
-      <c r="E18" s="64" t="s">
+      <c r="D18" s="32">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26" t="s">
+      <c r="F18" s="15"/>
+      <c r="G18" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="67"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="28" t="s">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="27">
-        <v>1</v>
-      </c>
-      <c r="E19" s="64" t="s">
+      <c r="D19" s="32">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="28" t="s">
+      <c r="F19" s="35"/>
+      <c r="G19" s="34"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="64" t="s">
+      <c r="D20" s="32"/>
+      <c r="E20" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="28" t="s">
+      <c r="F20" s="35"/>
+      <c r="G20" s="34"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="27">
-        <v>1</v>
-      </c>
-      <c r="E21" s="64" t="s">
+      <c r="D21" s="32">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="30" t="s">
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="64" t="s">
+      <c r="D22" s="25">
+        <v>1</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="64" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="30" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="22">
-        <v>1</v>
-      </c>
-      <c r="E24" s="64" t="s">
+      <c r="D24" s="25">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="30" t="s">
+      <c r="F24" s="35"/>
+      <c r="G24" s="37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" ht="18" spans="1:7">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:8" ht="15.6">
+      <c r="A25" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="22">
-        <v>1</v>
-      </c>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="20" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:7">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:8" ht="15.6">
+      <c r="A26" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="22">
-        <v>1</v>
-      </c>
-      <c r="E26" s="64" t="s">
+      <c r="D26" s="25">
+        <v>1</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="20" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="27" ht="18" spans="1:7">
-      <c r="A27" s="19" t="s">
+    <row r="27" spans="1:8" ht="15.6">
+      <c r="A27" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="22">
-        <v>1</v>
-      </c>
-      <c r="E27" s="64" t="s">
+      <c r="D27" s="25">
+        <v>1</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" ht="36" spans="1:7">
-      <c r="A28" s="19" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:8" ht="31.2">
+      <c r="A28" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="22">
-        <v>1</v>
-      </c>
-      <c r="E28" s="64" t="s">
+      <c r="D28" s="25">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="65"/>
-      <c r="G28" s="20" t="s">
+      <c r="F28" s="27"/>
+      <c r="G28" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" ht="18" spans="1:7">
-      <c r="A29" s="19" t="s">
+    <row r="29" spans="1:8" ht="15.6">
+      <c r="A29" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="22">
-        <v>1</v>
-      </c>
-      <c r="E29" s="64" t="s">
+      <c r="D29" s="25">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F29" s="65"/>
-      <c r="G29" s="20" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30" ht="18" spans="1:7">
-      <c r="A30" s="19" t="s">
+    <row r="30" spans="1:8" ht="15.6">
+      <c r="A30" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="22">
-        <v>1</v>
-      </c>
-      <c r="E30" s="64" t="s">
+      <c r="D30" s="25">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="65"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" ht="18" spans="1:7">
-      <c r="A31" s="19" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.6">
+      <c r="A31" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="64" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="65"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" ht="18" spans="1:7">
-      <c r="A32" s="19" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.6">
+      <c r="A32" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="64" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" ht="18" spans="1:7">
-      <c r="A33" s="32" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6">
+      <c r="A33" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="64" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="33" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" ht="18" spans="1:7">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:9" ht="15.6">
+      <c r="A34" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="34">
-        <v>1</v>
-      </c>
-      <c r="E34" s="64" t="s">
+      <c r="D34" s="41">
+        <v>1</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="33" t="s">
+      <c r="F34" s="27"/>
+      <c r="G34" s="40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="35" ht="17" spans="1:7">
-      <c r="A35" s="35" t="s">
+    <row r="35" spans="1:9">
+      <c r="A35" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="37">
-        <v>1</v>
-      </c>
-      <c r="E35" s="64" t="s">
+      <c r="D35" s="44">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="36" t="s">
+      <c r="F35" s="35"/>
+      <c r="G35" s="43" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" ht="17" spans="1:9">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="37">
-        <v>1</v>
-      </c>
-      <c r="E36" s="64" t="s">
+      <c r="D36" s="44">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="36" t="s">
+      <c r="F36" s="35"/>
+      <c r="G36" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="36"/>
-    </row>
-    <row r="37" ht="17" spans="1:9">
-      <c r="A37" s="35" t="s">
+      <c r="H36" s="45"/>
+      <c r="I36" s="43"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="D37" s="37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="64" t="s">
+      <c r="D37" s="44">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="36"/>
-    </row>
-    <row r="38" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="F37" s="35"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="43"/>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1">
       <c r="A38" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D38" s="39">
-        <v>1</v>
-      </c>
-      <c r="E38" s="64" t="s">
+      <c r="D38" s="47">
+        <v>1</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="36" t="s">
+      <c r="F38" s="35"/>
+      <c r="G38" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="70"/>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1">
       <c r="A39" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="39">
-        <v>1</v>
-      </c>
-      <c r="E39" s="64" t="s">
+      <c r="D39" s="47">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="68"/>
-      <c r="G39" s="36" t="s">
+      <c r="F39" s="35"/>
+      <c r="G39" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="70"/>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:9" s="3" customFormat="1">
       <c r="A40" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="40">
-        <v>1</v>
-      </c>
-      <c r="E40" s="64" t="s">
+      <c r="D40" s="49">
+        <v>1</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="36" t="s">
+      <c r="F40" s="35"/>
+      <c r="G40" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H40" s="70"/>
-    </row>
-    <row r="41" s="4" customFormat="1" ht="17" spans="1:8">
+      <c r="H40" s="48"/>
+    </row>
+    <row r="41" spans="1:9" s="4" customFormat="1">
       <c r="A41" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="41">
-        <v>1</v>
-      </c>
-      <c r="E41" s="64" t="s">
+      <c r="D41" s="50">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F41" s="68"/>
-      <c r="H41" s="71"/>
-    </row>
-    <row r="42" s="4" customFormat="1" ht="17" spans="1:8">
+      <c r="F41" s="35"/>
+      <c r="H41" s="51"/>
+    </row>
+    <row r="42" spans="1:9" s="4" customFormat="1">
       <c r="A42" s="4" t="s">
         <v>166</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="41">
-        <v>1</v>
-      </c>
-      <c r="E42" s="64" t="s">
+      <c r="D42" s="50">
+        <v>1</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="68"/>
+      <c r="F42" s="35"/>
       <c r="G42" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H42" s="71"/>
-    </row>
-    <row r="43" s="5" customFormat="1" ht="17" spans="1:8">
+      <c r="H42" s="51"/>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1">
       <c r="A43" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C43" s="42" t="s">
+      <c r="C43" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="43">
-        <v>1</v>
-      </c>
-      <c r="E43" s="64" t="s">
+      <c r="D43" s="52">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="F43" s="68"/>
+      <c r="F43" s="35"/>
       <c r="G43" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H43" s="72"/>
-    </row>
-    <row r="44" s="5" customFormat="1" ht="17" spans="1:8">
+      <c r="H43" s="53"/>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1">
       <c r="A44" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="42" t="s">
+      <c r="C44" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="68"/>
-      <c r="H44" s="72"/>
-    </row>
-    <row r="45" s="3" customFormat="1" ht="17" spans="1:8">
+      <c r="D44" s="52"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="35"/>
+      <c r="H44" s="53"/>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1">
       <c r="A45" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="49">
         <v>2</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="68" t="s">
+      <c r="E45" s="26"/>
+      <c r="F45" s="35" t="s">
         <v>181</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H45" s="70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" ht="17" spans="1:7">
-      <c r="A46" s="45" t="s">
+      <c r="H45" s="48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="56">
         <v>2</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="68" t="s">
+      <c r="E46" s="26"/>
+      <c r="F46" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="47" t="s">
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="47"/>
-      <c r="E47" s="64" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="F47" s="68"/>
-      <c r="G47" s="47"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="47" t="s">
+      <c r="F47" s="35"/>
+      <c r="G47" s="57"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="64" t="s">
+      <c r="D48" s="57"/>
+      <c r="E48" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="47"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="48" t="s">
+      <c r="F48" s="35"/>
+      <c r="G48" s="57"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="48" t="s">
+      <c r="B49" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D49" s="49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="64" t="s">
+      <c r="D49" s="59">
+        <v>1</v>
+      </c>
+      <c r="E49" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="48" t="s">
+      <c r="F49" s="35"/>
+      <c r="G49" s="58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="48" t="s">
+    <row r="50" spans="1:9">
+      <c r="A50" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="58" t="s">
         <v>199</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="49">
-        <v>1</v>
-      </c>
-      <c r="E50" s="64" t="s">
+      <c r="D50" s="59">
+        <v>1</v>
+      </c>
+      <c r="E50" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="F50" s="68"/>
-      <c r="G50" s="48" t="s">
+      <c r="F50" s="35"/>
+      <c r="G50" s="58" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="48" t="s">
+    <row r="51" spans="1:9">
+      <c r="A51" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B51" s="48" t="s">
+      <c r="B51" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="64" t="s">
+      <c r="D51" s="59"/>
+      <c r="E51" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="F51" s="68"/>
-      <c r="G51" s="48"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="58"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="64" t="s">
+      <c r="D52" s="25"/>
+      <c r="E52" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="F52" s="68"/>
-      <c r="G52" s="30" t="s">
+      <c r="F52" s="35"/>
+      <c r="G52" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="H52" s="73"/>
-      <c r="I52" s="73"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="50" t="s">
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="51"/>
-      <c r="E53" s="64" t="s">
+      <c r="D53" s="62"/>
+      <c r="E53" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="50" t="s">
+      <c r="F53" s="35"/>
+      <c r="G53" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H53" s="67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="50" t="s">
+      <c r="H53" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="64" t="s">
+      <c r="C54" s="24"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="50" t="s">
+      <c r="F54" s="35"/>
+      <c r="G54" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="50" t="s">
+      <c r="H54" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D55" s="51"/>
-      <c r="E55" s="64" t="s">
+      <c r="D55" s="62"/>
+      <c r="E55" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="68"/>
-      <c r="G55" s="50" t="s">
+      <c r="F55" s="35"/>
+      <c r="G55" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H55" s="67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="50" t="s">
+      <c r="H55" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="64" t="s">
+      <c r="C56" s="24"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F56" s="68"/>
-      <c r="G56" s="50" t="s">
+      <c r="F56" s="35"/>
+      <c r="G56" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H56" s="67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="50" t="s">
+      <c r="H56" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="64" t="s">
+      <c r="D57" s="62"/>
+      <c r="E57" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="F57" s="68"/>
-      <c r="G57" s="50" t="s">
+      <c r="F57" s="35"/>
+      <c r="G57" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H57" s="67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="50" t="s">
+      <c r="H57" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="61" t="s">
         <v>229</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="64" t="s">
+      <c r="C58" s="24"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="68"/>
-      <c r="G58" s="50"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="52" t="s">
+      <c r="F58" s="35"/>
+      <c r="G58" s="61"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="52" t="s">
+      <c r="B59" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="54"/>
-      <c r="E59" s="64" t="s">
+      <c r="D59" s="65"/>
+      <c r="E59" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="F59" s="74"/>
-      <c r="G59" s="52"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="55" t="s">
+      <c r="F59" s="66"/>
+      <c r="G59" s="63"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="67" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="D60" s="51">
-        <v>1</v>
-      </c>
-      <c r="E60" s="64" t="s">
+      <c r="D60" s="62">
+        <v>1</v>
+      </c>
+      <c r="E60" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="F60" s="68"/>
-      <c r="G60" s="50" t="s">
+      <c r="F60" s="35"/>
+      <c r="G60" s="61" t="s">
         <v>103</v>
       </c>
       <c r="H60" t="b">
@@ -4174,357 +3620,357 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="68" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="57"/>
-      <c r="E61" s="64" t="s">
+      <c r="D61" s="69"/>
+      <c r="E61" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="68"/>
-      <c r="G61" s="75"/>
-      <c r="H61" s="76"/>
-      <c r="I61" s="76"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="58" t="s">
+      <c r="F61" s="35"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D62" s="59"/>
-      <c r="E62" s="64" t="s">
+      <c r="D62" s="73"/>
+      <c r="E62" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="F62" s="68"/>
-      <c r="G62" s="58" t="s">
+      <c r="F62" s="35"/>
+      <c r="G62" s="72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="60" t="s">
+    <row r="63" spans="1:9">
+      <c r="A63" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="64">
+      <c r="D63" s="75"/>
+      <c r="E63" s="26">
         <v>1226354</v>
       </c>
-      <c r="F63" s="68"/>
-      <c r="G63" s="50" t="s">
+      <c r="F63" s="35"/>
+      <c r="G63" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H63" s="67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="60" t="s">
+      <c r="H63" s="33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="74" t="s">
         <v>250</v>
       </c>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="D64" s="61"/>
-      <c r="E64" s="64" t="s">
+      <c r="D64" s="75"/>
+      <c r="E64" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="F64" s="68"/>
-      <c r="G64" s="50" t="s">
+      <c r="F64" s="35"/>
+      <c r="G64" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="H64" s="67" t="b">
+      <c r="H64" s="33" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="74" t="s">
         <v>255</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="64" t="s">
+      <c r="C65" s="24"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="F65" s="68"/>
-      <c r="G65" s="60"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="74"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="60" t="s">
+      <c r="A66" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="B66" s="60" t="s">
+      <c r="B66" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="D66" s="61"/>
-      <c r="E66" s="64" t="s">
+      <c r="D66" s="75"/>
+      <c r="E66" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="68"/>
-      <c r="G66" s="60"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="74"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="79" t="s">
+      <c r="A67" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="B67" s="79" t="s">
+      <c r="B67" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="D67" s="80">
-        <v>1</v>
-      </c>
-      <c r="E67" s="64" t="s">
+      <c r="D67" s="79">
+        <v>1</v>
+      </c>
+      <c r="E67" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="F67" s="68"/>
-      <c r="G67" s="79" t="s">
+      <c r="F67" s="35"/>
+      <c r="G67" s="78" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="79" t="s">
+      <c r="A68" s="78" t="s">
         <v>265</v>
       </c>
-      <c r="B68" s="79" t="s">
+      <c r="B68" s="78" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D68" s="80">
-        <v>1</v>
-      </c>
-      <c r="E68" s="64" t="s">
+      <c r="D68" s="79">
+        <v>1</v>
+      </c>
+      <c r="E68" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="F68" s="68"/>
-      <c r="G68" s="79"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="78"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="79" t="s">
+      <c r="A69" s="78" t="s">
         <v>268</v>
       </c>
-      <c r="B69" s="79" t="s">
+      <c r="B69" s="78" t="s">
         <v>269</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="D69" s="80">
-        <v>1</v>
-      </c>
-      <c r="E69" s="64" t="s">
+      <c r="D69" s="79">
+        <v>1</v>
+      </c>
+      <c r="E69" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="F69" s="68"/>
-      <c r="G69" s="79"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="79" t="s">
+      <c r="F69" s="35"/>
+      <c r="G69" s="78"/>
+    </row>
+    <row r="70" spans="1:7" ht="15">
+      <c r="A70" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="B70" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="D70" s="80"/>
-      <c r="E70" s="64" t="s">
+      <c r="D70" s="79"/>
+      <c r="E70" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="F70" s="68"/>
-      <c r="G70" s="92" t="s">
+      <c r="F70" s="35"/>
+      <c r="G70" s="80" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="79" t="s">
+      <c r="A71" s="78" t="s">
         <v>275</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="D71" s="80">
+      <c r="D71" s="79">
         <v>2</v>
       </c>
-      <c r="E71" s="64"/>
-      <c r="F71" s="68" t="s">
+      <c r="E71" s="26"/>
+      <c r="F71" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="G71" s="79" t="s">
+      <c r="G71" s="78" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="79" t="s">
+      <c r="A72" s="78" t="s">
         <v>279</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="D72" s="80"/>
-      <c r="E72" s="64" t="s">
+      <c r="D72" s="79"/>
+      <c r="E72" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="F72" s="68"/>
-      <c r="G72" s="79" t="s">
+      <c r="F72" s="35"/>
+      <c r="G72" s="78" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="79" t="s">
+      <c r="A73" s="78" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="79" t="s">
+      <c r="B73" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D73" s="80"/>
-      <c r="E73" s="64" t="s">
+      <c r="D73" s="79"/>
+      <c r="E73" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="F73" s="68"/>
-      <c r="G73" s="79"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="78"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="79" t="s">
+      <c r="A74" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="B74" s="79" t="s">
+      <c r="B74" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="D74" s="80">
-        <v>1</v>
-      </c>
-      <c r="E74" s="64" t="s">
+      <c r="D74" s="79">
+        <v>1</v>
+      </c>
+      <c r="E74" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="F74" s="68"/>
-      <c r="G74" s="79"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="78"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="79" t="s">
+      <c r="A75" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D75" s="80"/>
-      <c r="E75" s="64" t="s">
+      <c r="D75" s="79"/>
+      <c r="E75" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F75" s="68"/>
-      <c r="G75" s="79"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="78"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="78" t="s">
         <v>295</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D76" s="80"/>
-      <c r="E76" s="64" t="s">
+      <c r="D76" s="79"/>
+      <c r="E76" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="F76" s="68"/>
-      <c r="G76" s="79"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="78"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="79" t="s">
+      <c r="A77" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D77" s="80"/>
-      <c r="E77" s="64" t="s">
+      <c r="D77" s="79"/>
+      <c r="E77" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F77" s="68"/>
-      <c r="G77" s="79"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="78"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="79" t="s">
+      <c r="A78" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D78" s="80"/>
-      <c r="E78" s="64" t="s">
+      <c r="D78" s="79"/>
+      <c r="E78" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="F78" s="68"/>
-      <c r="G78" s="79"/>
+      <c r="F78" s="35"/>
+      <c r="G78" s="78"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="79" t="s">
+      <c r="A79" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D79" s="80"/>
-      <c r="E79" s="64" t="s">
+      <c r="D79" s="79"/>
+      <c r="E79" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="F79" s="68"/>
-      <c r="G79" s="79"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="78"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="81" t="s">
@@ -4533,72 +3979,72 @@
       <c r="B80" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="24" t="s">
         <v>309</v>
       </c>
       <c r="D80" s="82">
         <v>2</v>
       </c>
-      <c r="E80" s="64" t="s">
+      <c r="E80" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="F80" s="68" t="s">
+      <c r="F80" s="35" t="s">
         <v>311</v>
       </c>
       <c r="G80" s="81" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9">
       <c r="A81" s="81" t="s">
         <v>313</v>
       </c>
       <c r="B81" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="C81" s="21"/>
+      <c r="C81" s="24"/>
       <c r="D81" s="82"/>
-      <c r="E81" s="64" t="s">
+      <c r="E81" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="F81" s="68"/>
+      <c r="F81" s="35"/>
       <c r="G81" s="81" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9">
       <c r="A82" s="81" t="s">
         <v>305</v>
       </c>
       <c r="B82" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="24" t="s">
         <v>305</v>
       </c>
       <c r="D82" s="82"/>
-      <c r="E82" s="64" t="s">
+      <c r="E82" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="F82" s="68"/>
+      <c r="F82" s="35"/>
       <c r="G82" s="81"/>
     </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="60" t="s">
+    <row r="83" spans="1:9">
+      <c r="A83" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="60" t="s">
+      <c r="B83" s="74" t="s">
         <v>318</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="D83" s="61"/>
-      <c r="E83" s="64" t="s">
+      <c r="D83" s="75"/>
+      <c r="E83" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="F83" s="68"/>
-      <c r="G83" s="60" t="s">
+      <c r="F83" s="35"/>
+      <c r="G83" s="74" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4609,17 +4055,17 @@
       <c r="B84" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="24" t="s">
         <v>321</v>
       </c>
       <c r="D84" s="83"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="68"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="35"/>
       <c r="G84" s="84"/>
       <c r="H84" t="b">
         <v>1</v>
       </c>
-      <c r="I84" s="73"/>
+      <c r="I84" s="60"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="81" t="s">
@@ -4628,206 +4074,206 @@
       <c r="B85" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="24" t="s">
         <v>305</v>
       </c>
       <c r="D85" s="83"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="68"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="35"/>
       <c r="G85" s="84"/>
-      <c r="I85" s="73"/>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85" s="60"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="81" t="s">
         <v>325</v>
       </c>
       <c r="B86" s="81" t="s">
         <v>326</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="24" t="s">
         <v>327</v>
       </c>
       <c r="D86" s="83">
         <v>1</v>
       </c>
-      <c r="E86" s="64" t="s">
+      <c r="E86" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="F86" s="68"/>
+      <c r="F86" s="35"/>
       <c r="G86" s="84" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9">
       <c r="A87" s="81" t="s">
         <v>330</v>
       </c>
       <c r="B87" s="81" t="s">
         <v>331</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="24" t="s">
         <v>332</v>
       </c>
       <c r="D87" s="83"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="60"/>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="E87" s="26"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="74"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="81" t="s">
         <v>333</v>
       </c>
       <c r="B88" s="81" t="s">
         <v>334</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="24" t="s">
         <v>333</v>
       </c>
       <c r="D88" s="83"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="60"/>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="E88" s="26"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="74"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="84"/>
-      <c r="B89" s="60" t="s">
+      <c r="B89" s="74" t="s">
         <v>335</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="D89" s="61">
-        <v>1</v>
-      </c>
-      <c r="E89" s="64" t="s">
+      <c r="D89" s="75">
+        <v>1</v>
+      </c>
+      <c r="E89" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="F89" s="68"/>
-      <c r="G89" s="60"/>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="F89" s="35"/>
+      <c r="G89" s="74"/>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="85" t="s">
         <v>338</v>
       </c>
       <c r="B90" s="85" t="s">
         <v>339</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="24" t="s">
         <v>338</v>
       </c>
       <c r="D90" s="86">
         <v>1</v>
       </c>
-      <c r="E90" s="64" t="s">
+      <c r="E90" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="F90" s="68"/>
+      <c r="F90" s="35"/>
       <c r="G90" s="85"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9">
       <c r="A91" s="85" t="s">
         <v>341</v>
       </c>
       <c r="B91" s="85" t="s">
         <v>342</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="24" t="s">
         <v>343</v>
       </c>
       <c r="D91" s="86"/>
-      <c r="E91" s="64" t="s">
+      <c r="E91" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="F91" s="68"/>
+      <c r="F91" s="35"/>
       <c r="G91" s="85"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9">
       <c r="A92" s="85" t="s">
         <v>345</v>
       </c>
       <c r="B92" s="85" t="s">
         <v>346</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="24" t="s">
         <v>347</v>
       </c>
       <c r="D92" s="86"/>
-      <c r="E92" s="64" t="s">
+      <c r="E92" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="F92" s="68"/>
+      <c r="F92" s="35"/>
       <c r="G92" s="85"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9">
       <c r="A93" s="85" t="s">
         <v>348</v>
       </c>
       <c r="B93" s="85" t="s">
         <v>349</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="24" t="s">
         <v>350</v>
       </c>
       <c r="D93" s="86">
         <v>1</v>
       </c>
-      <c r="E93" s="64" t="s">
+      <c r="E93" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="F93" s="68"/>
+      <c r="F93" s="35"/>
       <c r="G93" s="85" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9">
       <c r="A94" s="85" t="s">
         <v>352</v>
       </c>
       <c r="B94" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="C94" s="29" t="s">
+      <c r="C94" s="36" t="s">
         <v>354</v>
       </c>
       <c r="D94" s="85"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="68"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="35"/>
       <c r="G94" s="85"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9">
       <c r="A95" s="85" t="s">
         <v>355</v>
       </c>
       <c r="B95" s="85" t="s">
         <v>356</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="24" t="s">
         <v>357</v>
       </c>
       <c r="D95" s="83"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="68"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="35"/>
       <c r="G95" s="84" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="A96" s="85" t="s">
         <v>359</v>
       </c>
       <c r="B96" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="C96" s="29" t="s">
+      <c r="C96" s="36" t="s">
         <v>361</v>
       </c>
       <c r="D96" s="83">
         <v>1</v>
       </c>
-      <c r="E96" s="64" t="s">
+      <c r="E96" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="F96" s="68"/>
+      <c r="F96" s="35"/>
       <c r="G96" s="84"/>
     </row>
     <row r="97" spans="1:7">
@@ -4837,14 +4283,14 @@
       <c r="B97" s="85" t="s">
         <v>364</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="24" t="s">
         <v>363</v>
       </c>
       <c r="D97" s="83"/>
-      <c r="E97" s="64" t="s">
+      <c r="E97" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="F97" s="68"/>
+      <c r="F97" s="35"/>
       <c r="G97" s="85" t="s">
         <v>65</v>
       </c>
@@ -4856,14 +4302,14 @@
       <c r="B98" s="85" t="s">
         <v>366</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="24" t="s">
         <v>367</v>
       </c>
       <c r="D98" s="83"/>
-      <c r="E98" s="64" t="s">
+      <c r="E98" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="F98" s="68"/>
+      <c r="F98" s="35"/>
       <c r="G98" s="85" t="s">
         <v>65</v>
       </c>
@@ -4875,12 +4321,12 @@
       <c r="B99" s="85" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="24" t="s">
         <v>370</v>
       </c>
       <c r="D99" s="83"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="68"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="35"/>
       <c r="G99" s="84"/>
     </row>
     <row r="100" spans="1:7">
@@ -4888,12 +4334,12 @@
       <c r="B100" s="85" t="s">
         <v>371</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="24" t="s">
         <v>372</v>
       </c>
       <c r="D100" s="83"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="68"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="35"/>
       <c r="G100" s="85" t="s">
         <v>65</v>
       </c>
@@ -4905,14 +4351,14 @@
       <c r="B101" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="24" t="s">
         <v>375</v>
       </c>
       <c r="D101" s="83">
         <v>2</v>
       </c>
-      <c r="E101" s="64"/>
-      <c r="F101" s="68" t="s">
+      <c r="E101" s="26"/>
+      <c r="F101" s="35" t="s">
         <v>376</v>
       </c>
       <c r="G101" s="84"/>
@@ -4924,29 +4370,29 @@
       <c r="B102" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="C102" s="21"/>
+      <c r="C102" s="24"/>
       <c r="D102" s="83"/>
-      <c r="E102" s="64" t="s">
+      <c r="E102" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="F102" s="68"/>
+      <c r="F102" s="35"/>
       <c r="G102" s="84"/>
     </row>
-    <row r="103" ht="409.5" spans="1:7">
+    <row r="103" spans="1:7">
       <c r="A103" s="85" t="s">
         <v>380</v>
       </c>
       <c r="B103" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="24" t="s">
         <v>382</v>
       </c>
       <c r="D103" s="83">
         <v>2</v>
       </c>
-      <c r="E103" s="64"/>
-      <c r="F103" s="93" t="s">
+      <c r="E103" s="26"/>
+      <c r="F103" s="99" t="s">
         <v>383</v>
       </c>
       <c r="G103" s="85"/>
@@ -4958,12 +4404,12 @@
       <c r="B104" s="85" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="24" t="s">
         <v>386</v>
       </c>
       <c r="D104" s="83"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="68"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="35"/>
       <c r="G104" s="84"/>
     </row>
     <row r="105" spans="1:7">
@@ -4973,12 +4419,12 @@
       <c r="B105" s="85" t="s">
         <v>388</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="24" t="s">
         <v>389</v>
       </c>
       <c r="D105" s="83"/>
-      <c r="E105" s="64"/>
-      <c r="F105" s="68"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="35"/>
       <c r="G105" s="84"/>
     </row>
     <row r="106" spans="1:7">
@@ -4988,12 +4434,12 @@
       <c r="B106" s="85" t="s">
         <v>391</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="24" t="s">
         <v>392</v>
       </c>
       <c r="D106" s="83"/>
-      <c r="E106" s="64"/>
-      <c r="F106" s="68"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="35"/>
       <c r="G106" s="84"/>
     </row>
     <row r="107" spans="1:7">
@@ -5003,12 +4449,12 @@
       <c r="B107" s="85" t="s">
         <v>394</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="24" t="s">
         <v>395</v>
       </c>
       <c r="D107" s="83"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="68"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="35"/>
       <c r="G107" s="84"/>
     </row>
     <row r="108" spans="1:7">
@@ -5018,12 +4464,12 @@
       <c r="B108" s="85" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="24" t="s">
         <v>398</v>
       </c>
       <c r="D108" s="83"/>
-      <c r="E108" s="64"/>
-      <c r="F108" s="68"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="35"/>
       <c r="G108" s="84"/>
     </row>
     <row r="109" spans="1:7">
@@ -5037,8 +4483,8 @@
         <v>401</v>
       </c>
       <c r="D109" s="83"/>
-      <c r="E109" s="64"/>
-      <c r="F109" s="68"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="35"/>
       <c r="G109" s="84"/>
     </row>
     <row r="110" spans="1:7">
@@ -5048,219 +4494,219 @@
       <c r="B110" s="85" t="s">
         <v>403</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="24" t="s">
         <v>404</v>
       </c>
       <c r="D110" s="83"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="68"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="35"/>
       <c r="G110" s="84"/>
     </row>
-    <row r="111" ht="17" spans="1:7">
+    <row r="111" spans="1:7">
       <c r="A111" s="84" t="s">
         <v>405</v>
       </c>
       <c r="B111" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="24" t="s">
         <v>405</v>
       </c>
       <c r="D111" s="83"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="68"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="35"/>
       <c r="G111" s="4" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="112" ht="17" spans="1:7">
+    <row r="112" spans="1:7">
       <c r="A112" s="84" t="s">
         <v>408</v>
       </c>
       <c r="B112" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="24" t="s">
         <v>408</v>
       </c>
       <c r="D112" s="83"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="68"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="35"/>
       <c r="G112" s="4" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="113" ht="17" spans="1:7">
+    <row r="113" spans="1:7">
       <c r="A113" s="84" t="s">
         <v>411</v>
       </c>
       <c r="B113" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="24" t="s">
         <v>411</v>
       </c>
       <c r="D113" s="83"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="68"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="35"/>
       <c r="G113" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="114" ht="17" spans="1:7">
+    <row r="114" spans="1:7">
       <c r="A114" s="84" t="s">
         <v>413</v>
       </c>
       <c r="B114" s="89" t="s">
         <v>414</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="24" t="s">
         <v>413</v>
       </c>
       <c r="D114" s="83"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="68"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="35"/>
       <c r="G114" s="4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="115" ht="17" spans="1:7">
+    <row r="115" spans="1:7">
       <c r="A115" s="84" t="s">
         <v>416</v>
       </c>
       <c r="B115" s="88" t="s">
         <v>417</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="24" t="s">
         <v>416</v>
       </c>
       <c r="D115" s="83"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="68"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="35"/>
       <c r="G115" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" ht="17" spans="1:7">
+    <row r="116" spans="1:7">
       <c r="A116" s="84" t="s">
         <v>372</v>
       </c>
       <c r="B116" s="88" t="s">
         <v>418</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="24" t="s">
         <v>372</v>
       </c>
       <c r="D116" s="83"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="68"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="35"/>
       <c r="G116" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="117" ht="17" spans="1:7">
+    <row r="117" spans="1:7">
       <c r="A117" s="84" t="s">
         <v>419</v>
       </c>
       <c r="B117" s="88" t="s">
         <v>420</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="24" t="s">
         <v>419</v>
       </c>
       <c r="D117" s="83"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="68"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="35"/>
       <c r="G117" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="118" ht="17" spans="1:7">
+    <row r="118" spans="1:7">
       <c r="A118" s="84" t="s">
         <v>421</v>
       </c>
       <c r="B118" s="88" t="s">
         <v>422</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="24" t="s">
         <v>421</v>
       </c>
       <c r="D118" s="83"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="68"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="35"/>
       <c r="G118" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" ht="17" spans="1:7">
+    <row r="119" spans="1:7">
       <c r="A119" s="84" t="s">
         <v>424</v>
       </c>
       <c r="B119" s="89" t="s">
         <v>425</v>
       </c>
-      <c r="C119" s="29" t="s">
+      <c r="C119" s="36" t="s">
         <v>426</v>
       </c>
       <c r="D119" s="83"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="68"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="35"/>
       <c r="G119" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="120" ht="17" spans="1:7">
+    <row r="120" spans="1:7">
       <c r="A120" s="84" t="s">
         <v>428</v>
       </c>
       <c r="B120" s="89" t="s">
         <v>429</v>
       </c>
-      <c r="C120" s="29" t="s">
+      <c r="C120" s="36" t="s">
         <v>430</v>
       </c>
       <c r="D120" s="83"/>
-      <c r="E120" s="64"/>
-      <c r="F120" s="68"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="35"/>
       <c r="G120" s="4" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="121" ht="17" spans="1:7">
+    <row r="121" spans="1:7">
       <c r="A121" s="84" t="s">
         <v>432</v>
       </c>
       <c r="B121" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="24" t="s">
         <v>432</v>
       </c>
       <c r="D121" s="83"/>
-      <c r="E121" s="64"/>
-      <c r="F121" s="68"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="35"/>
       <c r="G121" s="4" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="122" ht="17" spans="1:7">
+    <row r="122" spans="1:7">
       <c r="A122" s="84" t="s">
         <v>435</v>
       </c>
       <c r="B122" s="88" t="s">
         <v>436</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="24" t="s">
         <v>435</v>
       </c>
       <c r="D122" s="83"/>
-      <c r="E122" s="64"/>
-      <c r="F122" s="68"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="35"/>
       <c r="G122" s="4" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="123" ht="17" spans="1:7">
+    <row r="123" spans="1:7">
       <c r="A123" s="84" t="s">
         <v>438</v>
       </c>
@@ -5271,8 +4717,8 @@
         <v>438</v>
       </c>
       <c r="D123" s="83"/>
-      <c r="E123" s="64"/>
-      <c r="F123" s="68"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="35"/>
       <c r="G123" s="4" t="s">
         <v>264</v>
       </c>
@@ -5284,12 +4730,12 @@
       <c r="B124" s="88" t="s">
         <v>441</v>
       </c>
-      <c r="C124" s="29" t="s">
+      <c r="C124" s="36" t="s">
         <v>442</v>
       </c>
       <c r="D124" s="83"/>
-      <c r="E124" s="64"/>
-      <c r="F124" s="68"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="35"/>
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
@@ -5303,8 +4749,8 @@
         <v>443</v>
       </c>
       <c r="D125" s="83"/>
-      <c r="E125" s="64"/>
-      <c r="F125" s="68"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="35"/>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
@@ -5320,10 +4766,10 @@
       <c r="D126" s="83">
         <v>1</v>
       </c>
-      <c r="E126" s="64" t="s">
+      <c r="E126" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="F126" s="68"/>
+      <c r="F126" s="35"/>
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7">
@@ -5337,8 +4783,8 @@
         <v>448</v>
       </c>
       <c r="D127" s="83"/>
-      <c r="E127" s="64"/>
-      <c r="F127" s="68"/>
+      <c r="E127" s="26"/>
+      <c r="F127" s="35"/>
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
@@ -5352,28 +4798,28 @@
         <v>450</v>
       </c>
       <c r="D128" s="83"/>
-      <c r="E128" s="64"/>
-      <c r="F128" s="68"/>
+      <c r="E128" s="26"/>
+      <c r="F128" s="35"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" ht="17" spans="1:7">
+    <row r="129" spans="1:7">
       <c r="A129" s="88" t="s">
         <v>452</v>
       </c>
       <c r="B129" s="88" t="s">
         <v>453</v>
       </c>
-      <c r="C129" s="29" t="s">
+      <c r="C129" s="36" t="s">
         <v>454</v>
       </c>
       <c r="D129" s="83"/>
-      <c r="E129" s="64"/>
-      <c r="F129" s="68"/>
+      <c r="E129" s="26"/>
+      <c r="F129" s="35"/>
       <c r="G129" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="130" ht="17" spans="1:7">
+    <row r="130" spans="1:7">
       <c r="A130" s="88" t="s">
         <v>456</v>
       </c>
@@ -5384,32 +4830,105 @@
         <v>456</v>
       </c>
       <c r="D130" s="83"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="68"/>
+      <c r="E130" s="26"/>
+      <c r="F130" s="35"/>
       <c r="G130" s="4" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="131" ht="17" spans="1:7">
-      <c r="A131" s="88" t="s">
+    <row r="131" spans="1:7">
+      <c r="A131" s="92" t="s">
         <v>305</v>
       </c>
-      <c r="B131" s="88" t="s">
+      <c r="B131" s="92" t="s">
         <v>458</v>
       </c>
-      <c r="C131" s="83" t="s">
+      <c r="C131" s="93" t="s">
         <v>305</v>
       </c>
-      <c r="D131" s="83"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="4" t="s">
+      <c r="D131" s="93"/>
+      <c r="E131" s="26"/>
+      <c r="F131" s="94"/>
+      <c r="G131" s="95" t="s">
         <v>455</v>
       </c>
     </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="96" t="s">
+        <v>460</v>
+      </c>
+      <c r="B132" s="96" t="s">
+        <v>463</v>
+      </c>
+      <c r="C132" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="D132" s="98">
+        <v>2</v>
+      </c>
+      <c r="E132" s="99"/>
+      <c r="F132" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="G132" s="96" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="100" t="s">
+        <v>461</v>
+      </c>
+      <c r="B133" s="96" t="s">
+        <v>464</v>
+      </c>
+      <c r="C133" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="D133" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="100" t="s">
+        <v>462</v>
+      </c>
+      <c r="B134" s="96" t="s">
+        <v>465</v>
+      </c>
+      <c r="C134" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="D134" s="7">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="28.8">
+      <c r="B2" s="101" t="s">
+        <v>467</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>